--- a/EspecificacionesMASIVAS_/Biología/DES-18_FIGURA_F11-F12_OGLR_AFCP.xlsx
+++ b/EspecificacionesMASIVAS_/Biología/DES-18_FIGURA_F11-F12_OGLR_AFCP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_Work\Junio_2018\EspecificacionesMASIVAS_\Biología\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_PsicometriaYEvaluacion\EspecificacionesMASIVAS_\Biología\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="499">
   <si>
     <t>Contenido de la especificación</t>
   </si>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>Nomenclatura: CONSECUTIVO_DES-18_FIGURA_F12_siglas de revisores_siglas de revisores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrumento: </t>
   </si>
   <si>
     <t>Revisor 1</t>
@@ -619,9 +616,6 @@
     <t xml:space="preserve">El reactivo ejemplo cumple con los criterios técnicos </t>
   </si>
   <si>
-    <t xml:space="preserve">Figura o disciplina: </t>
-  </si>
-  <si>
     <r>
       <t>Figura o disciplina:</t>
     </r>
@@ -884,9 +878,6 @@
   </si>
   <si>
     <t>1.4.1.3 A partir de modelos gráficos, el sustentante reconoce los diferentes tipos de estructuras poblacionales</t>
-  </si>
-  <si>
-    <t>1.4.1.4 A partir del concepto de biocenosis, el sustentante distingue las relaciones entre poblaciones que se establecen en una comunidad</t>
   </si>
   <si>
     <t>1.4.1.5 A partir de ejemplos, el sustentante distingue los tipos o  etapas de una sucesión biológica</t>
@@ -1863,12 +1854,80 @@
       <t>a la que corresponde (dominancia incompleta, codominancia, alelos múltiples, poligénica, pleitropía, herencia ligada al sexo)</t>
     </r>
   </si>
+  <si>
+    <t>Se presentan cambios en la condición y en la acción.</t>
+  </si>
+  <si>
+    <t>Instrumento: Examen de Conocimientos Disciplinares de Evaluación del Desempeño Docente en Educación Media Superior</t>
+  </si>
+  <si>
+    <t>Figura o disciplina:  Docente. Economía</t>
+  </si>
+  <si>
+    <t>OGLR</t>
+  </si>
+  <si>
+    <t>AFCP</t>
+  </si>
+  <si>
+    <t>Se observa un error de redacción: En la redacción de la acción, falta un artículo que conecte las palabras "reconoce" y "herencia".</t>
+  </si>
+  <si>
+    <t>Se observa un error de redacción: En la redacción de la condición se mezcla un artículo indefinido en singular ("un") con un sustantivo en pliural ("ejemplos")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se observa un error de redacción: Falta separar la condición y la acción con una coma. </t>
+  </si>
+  <si>
+    <t>Se presentan cambios en la condición y en la acción</t>
+  </si>
+  <si>
+    <t>Se observa un error de redacción en la condición, falta un artículo indefinido: "A partir de enunciado"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.4.1.4 A partir del concepto de biocenosis, el sustentante distingue las relaciones entre poblaciones </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>que se establecen en una comunidad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.4.1.4 A partir del concepto de biocenosis, el sustentante distingue las relaciones entre poblaciones </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>que se establecen en una comunidad</t>
+    </r>
+  </si>
+  <si>
+    <t>La especificación no fue observada previamente, no obstante la acción se presenta con poca claridad: No queda claro si el enunciado "las relaciones entre poblaciones que se establecen en una comunidad", lo que se establece son las poblaciones o las relaciones.</t>
+  </si>
+  <si>
+    <t>Se presentan cambios en la acción de la definición operacional.</t>
+  </si>
+  <si>
+    <t>Se presentan cambios en la condición de la definición operacional.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2029,8 +2088,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2099,6 +2171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2497,7 +2575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2820,18 +2898,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2874,63 +2940,6 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2945,15 +2954,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3010,6 +3010,87 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3318,26 +3399,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="150"/>
+      <c r="A1" s="169" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="171"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="144" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="147"/>
+      <c r="A2" s="165" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="168"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3347,19 +3428,19 @@
         <v>22</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3367,16 +3448,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="26"/>
       <c r="F4" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3384,16 +3465,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>72</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3401,16 +3482,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3418,39 +3499,39 @@
         <v>4</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="8" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="148" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="149"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="151"/>
+      <c r="A8" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="170"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="172"/>
     </row>
     <row r="9" spans="1:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="144" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="147"/>
+      <c r="A9" s="165" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="168"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -3460,19 +3541,19 @@
         <v>22</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="G10" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3480,16 +3561,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3497,39 +3578,39 @@
         <v>2</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="13" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="148" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="150"/>
+      <c r="A13" s="169" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="171"/>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="144" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="147"/>
+      <c r="A14" s="165" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="166"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="168"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
@@ -3539,19 +3620,19 @@
         <v>22</v>
       </c>
       <c r="C15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="E15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="F15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="G15" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3559,16 +3640,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3576,16 +3657,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="26" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3619,26 +3700,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="169" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="171"/>
+    </row>
+    <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="150"/>
-    </row>
-    <row r="2" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="144" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="147"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="168"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3648,19 +3729,19 @@
         <v>22</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3668,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -3681,7 +3762,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -3694,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3707,7 +3788,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -3720,7 +3801,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -3733,7 +3814,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -3746,7 +3827,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -3759,7 +3840,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -3772,7 +3853,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -3785,7 +3866,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -3798,7 +3879,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
@@ -3811,7 +3892,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
@@ -3824,7 +3905,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
@@ -3837,7 +3918,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -3850,7 +3931,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -3863,7 +3944,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -3876,7 +3957,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -3889,7 +3970,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -3902,7 +3983,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
@@ -3915,7 +3996,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -3928,7 +4009,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -3975,8 +4056,8 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
+      <pane ySplit="9" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,54 +4082,54 @@
       <c r="F1" s="72"/>
       <c r="G1" s="72"/>
       <c r="H1" s="73"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
       <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71"/>
       <c r="B2" s="37"/>
-      <c r="C2" s="126" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
+      <c r="C2" s="180" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="187" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="129" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
+      <c r="A4" s="189" t="s">
+        <v>486</v>
+      </c>
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="188"/>
     </row>
     <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="90"/>
@@ -4065,7 +4146,7 @@
       <c r="J5" s="91"/>
       <c r="K5" s="91"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92"/>
       <c r="B6" s="93"/>
       <c r="C6" s="93"/>
@@ -4079,104 +4160,106 @@
       <c r="K6" s="93"/>
     </row>
     <row r="7" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="131" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
+      <c r="A7" s="127" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="128"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="75"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="134" t="s">
+      <c r="B8" s="133"/>
+      <c r="C8" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="153" t="s">
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="154"/>
-      <c r="K8" s="138" t="s">
+      <c r="J8" s="177"/>
+      <c r="K8" s="134" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="16" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="141" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="141" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="141" t="s">
+      <c r="B9" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="137" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="137" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="137" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="137" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="135"/>
+    </row>
+    <row r="10" spans="1:11" s="150" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="145">
+        <v>1</v>
+      </c>
+      <c r="B10" s="145" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="141" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="141" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="141" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="140" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="139"/>
-    </row>
-    <row r="10" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="171">
+      <c r="D10" s="147">
+        <v>2</v>
+      </c>
+      <c r="E10" s="173" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="162" t="s">
+        <v>380</v>
+      </c>
+      <c r="G10" s="162" t="s">
+        <v>331</v>
+      </c>
+      <c r="H10" s="163">
+        <v>2</v>
+      </c>
+      <c r="I10" s="148">
         <v>1</v>
       </c>
-      <c r="B10" s="171" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="172" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="173">
-        <v>2</v>
-      </c>
-      <c r="E10" s="168" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="188" t="s">
-        <v>383</v>
-      </c>
-      <c r="G10" s="188" t="s">
-        <v>334</v>
-      </c>
-      <c r="H10" s="189">
-        <v>2</v>
-      </c>
-      <c r="I10" s="174">
-        <v>1</v>
-      </c>
-      <c r="J10" s="174">
+      <c r="J10" s="148">
         <v>0</v>
       </c>
-      <c r="K10" s="175"/>
+      <c r="K10" s="149" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="53">
@@ -4184,22 +4267,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" s="143" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="163">
-        <v>2</v>
-      </c>
-      <c r="E11" s="169"/>
-      <c r="F11" s="186" t="s">
-        <v>384</v>
-      </c>
-      <c r="G11" s="186" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="187">
+        <v>233</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="140">
+        <v>2</v>
+      </c>
+      <c r="E11" s="174"/>
+      <c r="F11" s="160" t="s">
+        <v>381</v>
+      </c>
+      <c r="G11" s="160" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="161">
         <v>2</v>
       </c>
       <c r="I11" s="76">
@@ -4216,22 +4299,22 @@
         <v>3</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="163">
-        <v>2</v>
-      </c>
-      <c r="E12" s="170"/>
-      <c r="F12" s="186" t="s">
-        <v>385</v>
-      </c>
-      <c r="G12" s="186" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="187">
+        <v>234</v>
+      </c>
+      <c r="C12" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="140">
+        <v>2</v>
+      </c>
+      <c r="E12" s="175"/>
+      <c r="F12" s="160" t="s">
+        <v>382</v>
+      </c>
+      <c r="G12" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="161">
         <v>2</v>
       </c>
       <c r="I12" s="76">
@@ -4242,39 +4325,41 @@
       </c>
       <c r="K12" s="78"/>
     </row>
-    <row r="13" spans="1:11" s="176" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A13" s="171">
+    <row r="13" spans="1:11" s="150" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="145">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B13" s="171" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="172" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="173">
-        <v>2</v>
-      </c>
-      <c r="E13" s="168" t="s">
-        <v>224</v>
-      </c>
-      <c r="F13" s="188" t="s">
-        <v>386</v>
-      </c>
-      <c r="G13" s="188" t="s">
-        <v>335</v>
-      </c>
-      <c r="H13" s="189">
-        <v>2</v>
-      </c>
-      <c r="I13" s="174">
+      <c r="B13" s="145" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="146" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="147">
+        <v>2</v>
+      </c>
+      <c r="E13" s="173" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="162" t="s">
+        <v>383</v>
+      </c>
+      <c r="G13" s="162" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13" s="163">
+        <v>2</v>
+      </c>
+      <c r="I13" s="148">
         <v>1</v>
       </c>
-      <c r="J13" s="174">
+      <c r="J13" s="148">
         <v>0</v>
       </c>
-      <c r="K13" s="175"/>
+      <c r="K13" s="149" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="14" spans="1:11" s="17" customFormat="1" ht="108" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
@@ -4282,22 +4367,22 @@
         <v>5</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" s="142" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="163">
-        <v>2</v>
-      </c>
-      <c r="E14" s="169"/>
-      <c r="F14" s="186" t="s">
-        <v>387</v>
-      </c>
-      <c r="G14" s="186" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="187">
+        <v>236</v>
+      </c>
+      <c r="C14" s="138" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="140">
+        <v>2</v>
+      </c>
+      <c r="E14" s="174"/>
+      <c r="F14" s="160" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="160" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="161">
         <v>2</v>
       </c>
       <c r="I14" s="76">
@@ -4308,37 +4393,39 @@
       </c>
       <c r="K14" s="77"/>
     </row>
-    <row r="15" spans="1:11" s="176" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A15" s="171">
+    <row r="15" spans="1:11" s="150" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A15" s="145">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" s="171" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="172" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="173">
-        <v>2</v>
-      </c>
-      <c r="E15" s="169"/>
-      <c r="F15" s="188" t="s">
-        <v>388</v>
-      </c>
-      <c r="G15" s="188" t="s">
-        <v>336</v>
-      </c>
-      <c r="H15" s="189">
-        <v>2</v>
-      </c>
-      <c r="I15" s="174">
+      <c r="B15" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="146" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="147">
+        <v>2</v>
+      </c>
+      <c r="E15" s="174"/>
+      <c r="F15" s="162" t="s">
+        <v>385</v>
+      </c>
+      <c r="G15" s="162" t="s">
+        <v>333</v>
+      </c>
+      <c r="H15" s="163">
+        <v>2</v>
+      </c>
+      <c r="I15" s="148">
         <v>1</v>
       </c>
-      <c r="J15" s="174">
+      <c r="J15" s="148">
         <v>0</v>
       </c>
-      <c r="K15" s="175"/>
+      <c r="K15" s="149" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="16" spans="1:11" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="53">
@@ -4346,22 +4433,22 @@
         <v>7</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="142" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="164">
-        <v>2</v>
-      </c>
-      <c r="E16" s="170"/>
-      <c r="F16" s="186" t="s">
-        <v>389</v>
-      </c>
-      <c r="G16" s="186" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="187">
+        <v>238</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="141">
+        <v>2</v>
+      </c>
+      <c r="E16" s="175"/>
+      <c r="F16" s="160" t="s">
+        <v>386</v>
+      </c>
+      <c r="G16" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="161">
         <v>2</v>
       </c>
       <c r="I16" s="63">
@@ -4378,24 +4465,24 @@
         <v>8</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="C17" s="142" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="164">
-        <v>2</v>
-      </c>
-      <c r="E17" s="168" t="s">
-        <v>225</v>
-      </c>
-      <c r="F17" s="186" t="s">
-        <v>390</v>
-      </c>
-      <c r="G17" s="186" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="187">
+        <v>239</v>
+      </c>
+      <c r="C17" s="138" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="141">
+        <v>2</v>
+      </c>
+      <c r="E17" s="173" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="160" t="s">
+        <v>387</v>
+      </c>
+      <c r="G17" s="160" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="161">
         <v>2</v>
       </c>
       <c r="I17" s="63">
@@ -4406,37 +4493,39 @@
       </c>
       <c r="K17" s="77"/>
     </row>
-    <row r="18" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="171">
+    <row r="18" spans="1:11" s="150" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="145">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B18" s="171" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="172" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="177">
+      <c r="B18" s="145" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="146" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="151">
         <v>3</v>
       </c>
-      <c r="E18" s="169"/>
-      <c r="F18" s="188" t="s">
-        <v>391</v>
-      </c>
-      <c r="G18" s="190" t="s">
-        <v>337</v>
-      </c>
-      <c r="H18" s="189">
-        <v>2</v>
-      </c>
-      <c r="I18" s="178">
+      <c r="E18" s="174"/>
+      <c r="F18" s="162" t="s">
+        <v>388</v>
+      </c>
+      <c r="G18" s="164" t="s">
+        <v>334</v>
+      </c>
+      <c r="H18" s="163">
+        <v>2</v>
+      </c>
+      <c r="I18" s="152">
         <v>1</v>
       </c>
-      <c r="J18" s="178">
+      <c r="J18" s="152">
         <v>0</v>
       </c>
-      <c r="K18" s="175"/>
+      <c r="K18" s="149" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="19" spans="1:11" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="53">
@@ -4444,22 +4533,22 @@
         <v>10</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="142" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="165">
+        <v>241</v>
+      </c>
+      <c r="C19" s="138" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="142">
         <v>3</v>
       </c>
-      <c r="E19" s="169"/>
-      <c r="F19" s="186" t="s">
-        <v>392</v>
-      </c>
-      <c r="G19" s="186" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="187">
+      <c r="E19" s="174"/>
+      <c r="F19" s="160" t="s">
+        <v>389</v>
+      </c>
+      <c r="G19" s="160" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="161">
         <v>3</v>
       </c>
       <c r="I19" s="63">
@@ -4470,37 +4559,39 @@
       </c>
       <c r="K19" s="77"/>
     </row>
-    <row r="20" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="171">
+    <row r="20" spans="1:11" s="150" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="145">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B20" s="171" t="s">
-        <v>245</v>
-      </c>
-      <c r="C20" s="172" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="179">
-        <v>2</v>
-      </c>
-      <c r="E20" s="169"/>
-      <c r="F20" s="188" t="s">
-        <v>393</v>
-      </c>
-      <c r="G20" s="188" t="s">
-        <v>338</v>
-      </c>
-      <c r="H20" s="189">
-        <v>2</v>
-      </c>
-      <c r="I20" s="178">
+      <c r="B20" s="145" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="146" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="153">
+        <v>2</v>
+      </c>
+      <c r="E20" s="174"/>
+      <c r="F20" s="162" t="s">
+        <v>390</v>
+      </c>
+      <c r="G20" s="162" t="s">
+        <v>335</v>
+      </c>
+      <c r="H20" s="163">
+        <v>2</v>
+      </c>
+      <c r="I20" s="152">
         <v>1</v>
       </c>
-      <c r="J20" s="178">
+      <c r="J20" s="152">
         <v>0</v>
       </c>
-      <c r="K20" s="180"/>
+      <c r="K20" s="154" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="21" spans="1:11" s="17" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A21" s="53">
@@ -4508,22 +4599,22 @@
         <v>12</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="142" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="166">
-        <v>2</v>
-      </c>
-      <c r="E21" s="169"/>
-      <c r="F21" s="186" t="s">
-        <v>394</v>
-      </c>
-      <c r="G21" s="186" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" s="187">
+        <v>243</v>
+      </c>
+      <c r="C21" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="143">
+        <v>2</v>
+      </c>
+      <c r="E21" s="174"/>
+      <c r="F21" s="160" t="s">
+        <v>391</v>
+      </c>
+      <c r="G21" s="160" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="161">
         <v>2</v>
       </c>
       <c r="I21" s="63">
@@ -4534,37 +4625,39 @@
       </c>
       <c r="K21" s="77"/>
     </row>
-    <row r="22" spans="1:11" s="176" customFormat="1" ht="108" x14ac:dyDescent="0.25">
-      <c r="A22" s="171">
+    <row r="22" spans="1:11" s="150" customFormat="1" ht="108" x14ac:dyDescent="0.25">
+      <c r="A22" s="145">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B22" s="171" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="172" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="179">
-        <v>2</v>
-      </c>
-      <c r="E22" s="170"/>
-      <c r="F22" s="188" t="s">
-        <v>395</v>
-      </c>
-      <c r="G22" s="188" t="s">
-        <v>339</v>
-      </c>
-      <c r="H22" s="189">
-        <v>2</v>
-      </c>
-      <c r="I22" s="178">
+      <c r="B22" s="145" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="146" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="153">
+        <v>2</v>
+      </c>
+      <c r="E22" s="175"/>
+      <c r="F22" s="162" t="s">
+        <v>392</v>
+      </c>
+      <c r="G22" s="162" t="s">
+        <v>336</v>
+      </c>
+      <c r="H22" s="163">
+        <v>2</v>
+      </c>
+      <c r="I22" s="152">
         <v>1</v>
       </c>
-      <c r="J22" s="178">
+      <c r="J22" s="152">
         <v>0</v>
       </c>
-      <c r="K22" s="180"/>
+      <c r="K22" s="154" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="23" spans="1:11" s="17" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A23" s="53">
@@ -4572,24 +4665,24 @@
         <v>14</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="142" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="165">
-        <v>2</v>
-      </c>
-      <c r="E23" s="168" t="s">
-        <v>226</v>
-      </c>
-      <c r="F23" s="186" t="s">
-        <v>396</v>
-      </c>
-      <c r="G23" s="186" t="s">
-        <v>340</v>
-      </c>
-      <c r="H23" s="187">
+        <v>245</v>
+      </c>
+      <c r="C23" s="138" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="142">
+        <v>2</v>
+      </c>
+      <c r="E23" s="173" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="160" t="s">
+        <v>393</v>
+      </c>
+      <c r="G23" s="160" t="s">
+        <v>337</v>
+      </c>
+      <c r="H23" s="161">
         <v>2</v>
       </c>
       <c r="I23" s="63">
@@ -4600,165 +4693,175 @@
       </c>
       <c r="K23" s="77"/>
     </row>
-    <row r="24" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="171">
+    <row r="24" spans="1:11" s="150" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="145">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B24" s="171" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="172" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="177">
-        <v>2</v>
-      </c>
-      <c r="E24" s="169"/>
-      <c r="F24" s="188" t="s">
-        <v>397</v>
-      </c>
-      <c r="G24" s="188" t="s">
-        <v>341</v>
-      </c>
-      <c r="H24" s="189">
-        <v>2</v>
-      </c>
-      <c r="I24" s="178">
+      <c r="B24" s="145" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="146" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="151">
+        <v>2</v>
+      </c>
+      <c r="E24" s="174"/>
+      <c r="F24" s="162" t="s">
+        <v>394</v>
+      </c>
+      <c r="G24" s="162" t="s">
+        <v>338</v>
+      </c>
+      <c r="H24" s="163">
+        <v>2</v>
+      </c>
+      <c r="I24" s="152">
         <v>1</v>
       </c>
-      <c r="J24" s="178">
+      <c r="J24" s="152">
         <v>0</v>
       </c>
-      <c r="K24" s="180"/>
-    </row>
-    <row r="25" spans="1:11" s="176" customFormat="1" ht="108" x14ac:dyDescent="0.25">
-      <c r="A25" s="171">
+      <c r="K24" s="154" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="150" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="145">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B25" s="171" t="s">
-        <v>250</v>
-      </c>
-      <c r="C25" s="172" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="179">
-        <v>2</v>
-      </c>
-      <c r="E25" s="169"/>
-      <c r="F25" s="188" t="s">
-        <v>398</v>
-      </c>
-      <c r="G25" s="188" t="s">
-        <v>342</v>
-      </c>
-      <c r="H25" s="189">
-        <v>2</v>
-      </c>
-      <c r="I25" s="178">
+      <c r="B25" s="145" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="146" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="153">
+        <v>2</v>
+      </c>
+      <c r="E25" s="174"/>
+      <c r="F25" s="162" t="s">
+        <v>395</v>
+      </c>
+      <c r="G25" s="162" t="s">
+        <v>339</v>
+      </c>
+      <c r="H25" s="163">
+        <v>2</v>
+      </c>
+      <c r="I25" s="152">
         <v>1</v>
       </c>
-      <c r="J25" s="178">
+      <c r="J25" s="152">
         <v>0</v>
       </c>
-      <c r="K25" s="175"/>
-    </row>
-    <row r="26" spans="1:11" s="176" customFormat="1" ht="108" x14ac:dyDescent="0.25">
-      <c r="A26" s="171">
+      <c r="K25" s="149" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="150" customFormat="1" ht="108" x14ac:dyDescent="0.25">
+      <c r="A26" s="145">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B26" s="171" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" s="172" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="177">
-        <v>2</v>
-      </c>
-      <c r="E26" s="169"/>
-      <c r="F26" s="188" t="s">
-        <v>399</v>
-      </c>
-      <c r="G26" s="188" t="s">
-        <v>343</v>
-      </c>
-      <c r="H26" s="189">
-        <v>2</v>
-      </c>
-      <c r="I26" s="178">
+      <c r="B26" s="145" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="146" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="151">
+        <v>2</v>
+      </c>
+      <c r="E26" s="174"/>
+      <c r="F26" s="162" t="s">
+        <v>396</v>
+      </c>
+      <c r="G26" s="162" t="s">
+        <v>340</v>
+      </c>
+      <c r="H26" s="163">
+        <v>2</v>
+      </c>
+      <c r="I26" s="152">
         <v>1</v>
       </c>
-      <c r="J26" s="178">
+      <c r="J26" s="152">
         <v>0</v>
       </c>
-      <c r="K26" s="180"/>
-    </row>
-    <row r="27" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="171">
+      <c r="K26" s="154" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="150" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="145">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="171" t="s">
-        <v>252</v>
-      </c>
-      <c r="C27" s="172" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="179">
-        <v>2</v>
-      </c>
-      <c r="E27" s="169"/>
-      <c r="F27" s="188" t="s">
-        <v>400</v>
-      </c>
-      <c r="G27" s="188" t="s">
-        <v>344</v>
-      </c>
-      <c r="H27" s="189">
-        <v>2</v>
-      </c>
-      <c r="I27" s="178">
+      <c r="B27" s="145" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="153">
+        <v>2</v>
+      </c>
+      <c r="E27" s="174"/>
+      <c r="F27" s="162" t="s">
+        <v>397</v>
+      </c>
+      <c r="G27" s="162" t="s">
+        <v>341</v>
+      </c>
+      <c r="H27" s="163">
+        <v>2</v>
+      </c>
+      <c r="I27" s="152">
         <v>1</v>
       </c>
-      <c r="J27" s="178">
+      <c r="J27" s="152">
         <v>0</v>
       </c>
-      <c r="K27" s="181"/>
-    </row>
-    <row r="28" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="171">
+      <c r="K27" s="155" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="150" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="145">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B28" s="171" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="172" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="177">
-        <v>2</v>
-      </c>
-      <c r="E28" s="169"/>
-      <c r="F28" s="188" t="s">
-        <v>401</v>
-      </c>
-      <c r="G28" s="188" t="s">
-        <v>345</v>
-      </c>
-      <c r="H28" s="189">
-        <v>2</v>
-      </c>
-      <c r="I28" s="178">
+      <c r="B28" s="145" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28" s="146" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="151">
+        <v>2</v>
+      </c>
+      <c r="E28" s="174"/>
+      <c r="F28" s="162" t="s">
+        <v>398</v>
+      </c>
+      <c r="G28" s="162" t="s">
+        <v>342</v>
+      </c>
+      <c r="H28" s="163">
+        <v>2</v>
+      </c>
+      <c r="I28" s="152">
         <v>1</v>
       </c>
-      <c r="J28" s="178">
+      <c r="J28" s="152">
         <v>0</v>
       </c>
-      <c r="K28" s="175"/>
+      <c r="K28" s="149" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="29" spans="1:11" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="53">
@@ -4766,22 +4869,22 @@
         <v>20</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>254</v>
-      </c>
-      <c r="C29" s="142" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="165">
-        <v>2</v>
-      </c>
-      <c r="E29" s="169"/>
-      <c r="F29" s="186" t="s">
-        <v>402</v>
-      </c>
-      <c r="G29" s="186" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="187">
+        <v>251</v>
+      </c>
+      <c r="C29" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="142">
+        <v>2</v>
+      </c>
+      <c r="E29" s="174"/>
+      <c r="F29" s="160" t="s">
+        <v>399</v>
+      </c>
+      <c r="G29" s="160" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="161">
         <v>2</v>
       </c>
       <c r="I29" s="63">
@@ -4792,133 +4895,141 @@
       </c>
       <c r="K29" s="78"/>
     </row>
-    <row r="30" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="171">
+    <row r="30" spans="1:11" s="150" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="145">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B30" s="171" t="s">
-        <v>255</v>
-      </c>
-      <c r="C30" s="172" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="182">
-        <v>2</v>
-      </c>
-      <c r="E30" s="169"/>
-      <c r="F30" s="188" t="s">
-        <v>403</v>
-      </c>
-      <c r="G30" s="188" t="s">
-        <v>346</v>
-      </c>
-      <c r="H30" s="189">
-        <v>2</v>
-      </c>
-      <c r="I30" s="178">
+      <c r="B30" s="145" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="146" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="156">
+        <v>2</v>
+      </c>
+      <c r="E30" s="174"/>
+      <c r="F30" s="162" t="s">
+        <v>400</v>
+      </c>
+      <c r="G30" s="162" t="s">
+        <v>343</v>
+      </c>
+      <c r="H30" s="163">
+        <v>2</v>
+      </c>
+      <c r="I30" s="152">
         <v>1</v>
       </c>
-      <c r="J30" s="178">
+      <c r="J30" s="152">
         <v>0</v>
       </c>
-      <c r="K30" s="180"/>
-    </row>
-    <row r="31" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="171">
+      <c r="K30" s="154" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="150" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="145">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B31" s="171" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" s="172" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="179">
-        <v>2</v>
-      </c>
-      <c r="E31" s="169"/>
-      <c r="F31" s="188" t="s">
-        <v>404</v>
-      </c>
-      <c r="G31" s="188" t="s">
-        <v>347</v>
-      </c>
-      <c r="H31" s="189">
-        <v>2</v>
-      </c>
-      <c r="I31" s="178">
+      <c r="B31" s="145" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" s="146" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="153">
+        <v>2</v>
+      </c>
+      <c r="E31" s="174"/>
+      <c r="F31" s="162" t="s">
+        <v>401</v>
+      </c>
+      <c r="G31" s="162" t="s">
+        <v>344</v>
+      </c>
+      <c r="H31" s="163">
+        <v>2</v>
+      </c>
+      <c r="I31" s="152">
         <v>1</v>
       </c>
-      <c r="J31" s="178">
+      <c r="J31" s="152">
         <v>0</v>
       </c>
-      <c r="K31" s="180"/>
-    </row>
-    <row r="32" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="171">
+      <c r="K31" s="154" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="150" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="145">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B32" s="171" t="s">
-        <v>257</v>
-      </c>
-      <c r="C32" s="172" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="179">
-        <v>2</v>
-      </c>
-      <c r="E32" s="169"/>
-      <c r="F32" s="188" t="s">
-        <v>405</v>
-      </c>
-      <c r="G32" s="188" t="s">
-        <v>348</v>
-      </c>
-      <c r="H32" s="189">
-        <v>2</v>
-      </c>
-      <c r="I32" s="178">
+      <c r="B32" s="145" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" s="146" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="153">
+        <v>2</v>
+      </c>
+      <c r="E32" s="174"/>
+      <c r="F32" s="162" t="s">
+        <v>402</v>
+      </c>
+      <c r="G32" s="162" t="s">
+        <v>345</v>
+      </c>
+      <c r="H32" s="163">
+        <v>2</v>
+      </c>
+      <c r="I32" s="152">
         <v>1</v>
       </c>
-      <c r="J32" s="178">
+      <c r="J32" s="152">
         <v>0</v>
       </c>
-      <c r="K32" s="180"/>
-    </row>
-    <row r="33" spans="1:11" s="176" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="171">
+      <c r="K32" s="154" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="150" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="145">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B33" s="171" t="s">
-        <v>258</v>
-      </c>
-      <c r="C33" s="172" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="179">
-        <v>2</v>
-      </c>
-      <c r="E33" s="169"/>
-      <c r="F33" s="188" t="s">
-        <v>406</v>
-      </c>
-      <c r="G33" s="188" t="s">
-        <v>349</v>
-      </c>
-      <c r="H33" s="189">
-        <v>2</v>
-      </c>
-      <c r="I33" s="178">
+      <c r="B33" s="145" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="146" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="153">
+        <v>2</v>
+      </c>
+      <c r="E33" s="174"/>
+      <c r="F33" s="162" t="s">
+        <v>403</v>
+      </c>
+      <c r="G33" s="162" t="s">
+        <v>346</v>
+      </c>
+      <c r="H33" s="163">
+        <v>2</v>
+      </c>
+      <c r="I33" s="152">
         <v>1</v>
       </c>
-      <c r="J33" s="178">
+      <c r="J33" s="152">
         <v>0</v>
       </c>
-      <c r="K33" s="180"/>
+      <c r="K33" s="154" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="34" spans="1:11" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="53">
@@ -4926,22 +5037,22 @@
         <v>25</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="C34" s="142" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" s="165">
-        <v>2</v>
-      </c>
-      <c r="E34" s="169"/>
-      <c r="F34" s="186" t="s">
-        <v>407</v>
-      </c>
-      <c r="G34" s="186" t="s">
-        <v>350</v>
-      </c>
-      <c r="H34" s="187">
+        <v>256</v>
+      </c>
+      <c r="C34" s="138" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="142">
+        <v>2</v>
+      </c>
+      <c r="E34" s="174"/>
+      <c r="F34" s="160" t="s">
+        <v>404</v>
+      </c>
+      <c r="G34" s="160" t="s">
+        <v>347</v>
+      </c>
+      <c r="H34" s="161">
         <v>2</v>
       </c>
       <c r="I34" s="63">
@@ -4958,22 +5069,22 @@
         <v>26</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="C35" s="142" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="164">
-        <v>2</v>
-      </c>
-      <c r="E35" s="169"/>
-      <c r="F35" s="186" t="s">
-        <v>408</v>
-      </c>
-      <c r="G35" s="186" t="s">
-        <v>150</v>
-      </c>
-      <c r="H35" s="187">
+        <v>257</v>
+      </c>
+      <c r="C35" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="141">
+        <v>2</v>
+      </c>
+      <c r="E35" s="174"/>
+      <c r="F35" s="160" t="s">
+        <v>405</v>
+      </c>
+      <c r="G35" s="160" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="161">
         <v>2</v>
       </c>
       <c r="I35" s="63">
@@ -4990,22 +5101,22 @@
         <v>27</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="C36" s="142" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" s="164">
-        <v>2</v>
-      </c>
-      <c r="E36" s="169"/>
-      <c r="F36" s="186" t="s">
-        <v>409</v>
-      </c>
-      <c r="G36" s="186" t="s">
-        <v>351</v>
-      </c>
-      <c r="H36" s="187">
+        <v>258</v>
+      </c>
+      <c r="C36" s="138" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="141">
+        <v>2</v>
+      </c>
+      <c r="E36" s="174"/>
+      <c r="F36" s="160" t="s">
+        <v>406</v>
+      </c>
+      <c r="G36" s="160" t="s">
+        <v>348</v>
+      </c>
+      <c r="H36" s="161">
         <v>2</v>
       </c>
       <c r="I36" s="63">
@@ -5016,39 +5127,41 @@
       </c>
       <c r="K36" s="78"/>
     </row>
-    <row r="37" spans="1:11" s="176" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A37" s="171">
+    <row r="37" spans="1:11" s="150" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A37" s="145">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B37" s="171" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="172" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="177">
-        <v>2</v>
-      </c>
-      <c r="E37" s="168" t="s">
-        <v>227</v>
-      </c>
-      <c r="F37" s="188" t="s">
-        <v>410</v>
-      </c>
-      <c r="G37" s="188" t="s">
-        <v>352</v>
-      </c>
-      <c r="H37" s="189">
-        <v>2</v>
-      </c>
-      <c r="I37" s="178">
+      <c r="B37" s="145" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="151">
+        <v>2</v>
+      </c>
+      <c r="E37" s="173" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" s="162" t="s">
+        <v>407</v>
+      </c>
+      <c r="G37" s="162" t="s">
+        <v>349</v>
+      </c>
+      <c r="H37" s="163">
+        <v>2</v>
+      </c>
+      <c r="I37" s="152">
         <v>1</v>
       </c>
-      <c r="J37" s="178">
+      <c r="J37" s="152">
         <v>0</v>
       </c>
-      <c r="K37" s="180"/>
+      <c r="K37" s="154" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="38" spans="1:11" s="17" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A38" s="53">
@@ -5056,22 +5169,22 @@
         <v>29</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="142" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" s="165">
-        <v>2</v>
-      </c>
-      <c r="E38" s="169"/>
-      <c r="F38" s="186" t="s">
-        <v>411</v>
-      </c>
-      <c r="G38" s="186" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" s="187">
+        <v>260</v>
+      </c>
+      <c r="C38" s="138" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="142">
+        <v>2</v>
+      </c>
+      <c r="E38" s="174"/>
+      <c r="F38" s="160" t="s">
+        <v>408</v>
+      </c>
+      <c r="G38" s="160" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="161">
         <v>2</v>
       </c>
       <c r="I38" s="63">
@@ -5088,22 +5201,22 @@
         <v>30</v>
       </c>
       <c r="B39" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="C39" s="143" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="164">
-        <v>2</v>
-      </c>
-      <c r="E39" s="169"/>
-      <c r="F39" s="186" t="s">
-        <v>412</v>
-      </c>
-      <c r="G39" s="186" t="s">
-        <v>353</v>
-      </c>
-      <c r="H39" s="187">
+        <v>261</v>
+      </c>
+      <c r="C39" s="139" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="141">
+        <v>2</v>
+      </c>
+      <c r="E39" s="174"/>
+      <c r="F39" s="160" t="s">
+        <v>409</v>
+      </c>
+      <c r="G39" s="160" t="s">
+        <v>350</v>
+      </c>
+      <c r="H39" s="161">
         <v>2</v>
       </c>
       <c r="I39" s="63">
@@ -5114,37 +5227,39 @@
       </c>
       <c r="K39" s="78"/>
     </row>
-    <row r="40" spans="1:11" s="176" customFormat="1" ht="108" x14ac:dyDescent="0.25">
-      <c r="A40" s="171">
+    <row r="40" spans="1:11" s="150" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="145">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B40" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="C40" s="172" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="177">
-        <v>2</v>
-      </c>
-      <c r="E40" s="169"/>
-      <c r="F40" s="188" t="s">
-        <v>413</v>
-      </c>
-      <c r="G40" s="188" t="s">
-        <v>354</v>
-      </c>
-      <c r="H40" s="189">
-        <v>2</v>
-      </c>
-      <c r="I40" s="178">
+      <c r="B40" s="145" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" s="146" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="151">
+        <v>2</v>
+      </c>
+      <c r="E40" s="174"/>
+      <c r="F40" s="162" t="s">
+        <v>410</v>
+      </c>
+      <c r="G40" s="162" t="s">
+        <v>351</v>
+      </c>
+      <c r="H40" s="163">
+        <v>2</v>
+      </c>
+      <c r="I40" s="152">
         <v>1</v>
       </c>
-      <c r="J40" s="178">
+      <c r="J40" s="152">
         <v>0</v>
       </c>
-      <c r="K40" s="180"/>
+      <c r="K40" s="154" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="41" spans="1:11" s="17" customFormat="1" ht="108" x14ac:dyDescent="0.25">
       <c r="A41" s="53">
@@ -5152,22 +5267,22 @@
         <v>32</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="C41" s="143" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" s="166">
-        <v>2</v>
-      </c>
-      <c r="E41" s="169"/>
-      <c r="F41" s="186" t="s">
-        <v>414</v>
-      </c>
-      <c r="G41" s="186" t="s">
-        <v>156</v>
-      </c>
-      <c r="H41" s="187">
+        <v>263</v>
+      </c>
+      <c r="C41" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="143">
+        <v>2</v>
+      </c>
+      <c r="E41" s="174"/>
+      <c r="F41" s="160" t="s">
+        <v>411</v>
+      </c>
+      <c r="G41" s="160" t="s">
+        <v>154</v>
+      </c>
+      <c r="H41" s="161">
         <v>2</v>
       </c>
       <c r="I41" s="63">
@@ -5178,37 +5293,39 @@
       </c>
       <c r="K41" s="78"/>
     </row>
-    <row r="42" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="171">
+    <row r="42" spans="1:11" s="150" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="145">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B42" s="171" t="s">
-        <v>267</v>
-      </c>
-      <c r="C42" s="172" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="177">
-        <v>2</v>
-      </c>
-      <c r="E42" s="169"/>
-      <c r="F42" s="188" t="s">
-        <v>415</v>
-      </c>
-      <c r="G42" s="188" t="s">
-        <v>355</v>
-      </c>
-      <c r="H42" s="189">
-        <v>2</v>
-      </c>
-      <c r="I42" s="178">
+      <c r="B42" s="145" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" s="146" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="151">
+        <v>2</v>
+      </c>
+      <c r="E42" s="174"/>
+      <c r="F42" s="162" t="s">
+        <v>412</v>
+      </c>
+      <c r="G42" s="162" t="s">
+        <v>352</v>
+      </c>
+      <c r="H42" s="163">
+        <v>2</v>
+      </c>
+      <c r="I42" s="152">
         <v>1</v>
       </c>
-      <c r="J42" s="178">
+      <c r="J42" s="152">
         <v>0</v>
       </c>
-      <c r="K42" s="175"/>
+      <c r="K42" s="149" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="43" spans="1:11" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.25">
       <c r="A43" s="53">
@@ -5216,22 +5333,22 @@
         <v>34</v>
       </c>
       <c r="B43" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="C43" s="143" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" s="165">
-        <v>2</v>
-      </c>
-      <c r="E43" s="169"/>
-      <c r="F43" s="186" t="s">
-        <v>416</v>
-      </c>
-      <c r="G43" s="186" t="s">
-        <v>158</v>
-      </c>
-      <c r="H43" s="187">
+        <v>265</v>
+      </c>
+      <c r="C43" s="139" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="142">
+        <v>2</v>
+      </c>
+      <c r="E43" s="174"/>
+      <c r="F43" s="160" t="s">
+        <v>413</v>
+      </c>
+      <c r="G43" s="160" t="s">
+        <v>156</v>
+      </c>
+      <c r="H43" s="161">
         <v>2</v>
       </c>
       <c r="I43" s="63">
@@ -5248,22 +5365,22 @@
         <v>35</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="C44" s="143" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="165">
-        <v>2</v>
-      </c>
-      <c r="E44" s="170"/>
-      <c r="F44" s="186" t="s">
-        <v>417</v>
-      </c>
-      <c r="G44" s="186" t="s">
-        <v>159</v>
-      </c>
-      <c r="H44" s="187">
+        <v>266</v>
+      </c>
+      <c r="C44" s="139" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="142">
+        <v>2</v>
+      </c>
+      <c r="E44" s="175"/>
+      <c r="F44" s="160" t="s">
+        <v>414</v>
+      </c>
+      <c r="G44" s="160" t="s">
+        <v>157</v>
+      </c>
+      <c r="H44" s="161">
         <v>2</v>
       </c>
       <c r="I44" s="63">
@@ -5274,62 +5391,64 @@
       </c>
       <c r="K44" s="77"/>
     </row>
-    <row r="45" spans="1:11" s="176" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A45" s="171">
+    <row r="45" spans="1:11" s="150" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="145">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B45" s="171" t="s">
-        <v>270</v>
-      </c>
-      <c r="C45" s="172" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="177">
-        <v>2</v>
-      </c>
-      <c r="E45" s="168" t="s">
-        <v>228</v>
-      </c>
-      <c r="F45" s="188" t="s">
-        <v>418</v>
-      </c>
-      <c r="G45" s="188" t="s">
-        <v>356</v>
-      </c>
-      <c r="H45" s="189">
-        <v>2</v>
-      </c>
-      <c r="I45" s="178">
+      <c r="B45" s="145" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="146" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="151">
+        <v>2</v>
+      </c>
+      <c r="E45" s="173" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="162" t="s">
+        <v>415</v>
+      </c>
+      <c r="G45" s="162" t="s">
+        <v>353</v>
+      </c>
+      <c r="H45" s="163">
+        <v>2</v>
+      </c>
+      <c r="I45" s="152">
         <v>1</v>
       </c>
-      <c r="J45" s="178">
+      <c r="J45" s="152">
         <v>0</v>
       </c>
-      <c r="K45" s="180"/>
-    </row>
-    <row r="46" spans="1:11" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45" s="154" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="17" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="C46" s="142" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="165">
-        <v>2</v>
-      </c>
-      <c r="E46" s="169"/>
-      <c r="F46" s="186" t="s">
-        <v>419</v>
-      </c>
-      <c r="G46" s="186" t="s">
-        <v>161</v>
-      </c>
-      <c r="H46" s="187">
+        <v>268</v>
+      </c>
+      <c r="C46" s="138" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="142">
+        <v>2</v>
+      </c>
+      <c r="E46" s="174"/>
+      <c r="F46" s="160" t="s">
+        <v>416</v>
+      </c>
+      <c r="G46" s="160" t="s">
+        <v>159</v>
+      </c>
+      <c r="H46" s="161">
         <v>2</v>
       </c>
       <c r="I46" s="63">
@@ -5340,60 +5459,62 @@
       </c>
       <c r="K46" s="77"/>
     </row>
-    <row r="47" spans="1:11" s="176" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="171">
+    <row r="47" spans="1:11" s="150" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="145">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B47" s="171" t="s">
-        <v>272</v>
-      </c>
-      <c r="C47" s="172" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="179">
-        <v>2</v>
-      </c>
-      <c r="E47" s="169"/>
-      <c r="F47" s="188" t="s">
-        <v>420</v>
-      </c>
-      <c r="G47" s="188" t="s">
-        <v>357</v>
-      </c>
-      <c r="H47" s="189">
-        <v>2</v>
-      </c>
-      <c r="I47" s="178">
+      <c r="B47" s="145" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="153">
+        <v>2</v>
+      </c>
+      <c r="E47" s="174"/>
+      <c r="F47" s="162" t="s">
+        <v>417</v>
+      </c>
+      <c r="G47" s="162" t="s">
+        <v>354</v>
+      </c>
+      <c r="H47" s="163">
+        <v>2</v>
+      </c>
+      <c r="I47" s="152">
         <v>1</v>
       </c>
-      <c r="J47" s="178">
+      <c r="J47" s="152">
         <v>0</v>
       </c>
-      <c r="K47" s="175"/>
-    </row>
-    <row r="48" spans="1:11" s="17" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="K47" s="149" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="17" customFormat="1" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="C48" s="142" t="s">
-        <v>486</v>
-      </c>
-      <c r="D48" s="164">
-        <v>2</v>
-      </c>
-      <c r="E48" s="169"/>
-      <c r="F48" s="186" t="s">
-        <v>421</v>
-      </c>
-      <c r="G48" s="186" t="s">
-        <v>485</v>
-      </c>
-      <c r="H48" s="187">
+        <v>270</v>
+      </c>
+      <c r="C48" s="138" t="s">
+        <v>483</v>
+      </c>
+      <c r="D48" s="141">
+        <v>2</v>
+      </c>
+      <c r="E48" s="174"/>
+      <c r="F48" s="160" t="s">
+        <v>418</v>
+      </c>
+      <c r="G48" s="160" t="s">
+        <v>482</v>
+      </c>
+      <c r="H48" s="161">
         <v>2</v>
       </c>
       <c r="I48" s="63">
@@ -5402,30 +5523,32 @@
       <c r="J48" s="63">
         <v>1</v>
       </c>
-      <c r="K48" s="77"/>
-    </row>
-    <row r="49" spans="1:11" s="17" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="K48" s="77" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="17" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="C49" s="143" t="s">
-        <v>163</v>
-      </c>
-      <c r="D49" s="165">
-        <v>2</v>
-      </c>
-      <c r="E49" s="169"/>
-      <c r="F49" s="186" t="s">
-        <v>422</v>
-      </c>
-      <c r="G49" s="186" t="s">
-        <v>163</v>
-      </c>
-      <c r="H49" s="187">
+        <v>271</v>
+      </c>
+      <c r="C49" s="139" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="142">
+        <v>2</v>
+      </c>
+      <c r="E49" s="174"/>
+      <c r="F49" s="160" t="s">
+        <v>419</v>
+      </c>
+      <c r="G49" s="160" t="s">
+        <v>161</v>
+      </c>
+      <c r="H49" s="161">
         <v>2</v>
       </c>
       <c r="I49" s="63">
@@ -5442,22 +5565,22 @@
         <v>41</v>
       </c>
       <c r="B50" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="C50" s="143" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" s="165">
-        <v>2</v>
-      </c>
-      <c r="E50" s="169"/>
-      <c r="F50" s="186" t="s">
-        <v>423</v>
-      </c>
-      <c r="G50" s="186" t="s">
-        <v>164</v>
-      </c>
-      <c r="H50" s="187">
+        <v>272</v>
+      </c>
+      <c r="C50" s="139" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="142">
+        <v>2</v>
+      </c>
+      <c r="E50" s="174"/>
+      <c r="F50" s="160" t="s">
+        <v>420</v>
+      </c>
+      <c r="G50" s="160" t="s">
+        <v>162</v>
+      </c>
+      <c r="H50" s="161">
         <v>2</v>
       </c>
       <c r="I50" s="63">
@@ -5474,22 +5597,22 @@
         <v>42</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="C51" s="142" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="164">
-        <v>2</v>
-      </c>
-      <c r="E51" s="169"/>
-      <c r="F51" s="186" t="s">
-        <v>424</v>
-      </c>
-      <c r="G51" s="186" t="s">
-        <v>165</v>
-      </c>
-      <c r="H51" s="187">
+        <v>273</v>
+      </c>
+      <c r="C51" s="138" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="141">
+        <v>2</v>
+      </c>
+      <c r="E51" s="174"/>
+      <c r="F51" s="160" t="s">
+        <v>421</v>
+      </c>
+      <c r="G51" s="160" t="s">
+        <v>163</v>
+      </c>
+      <c r="H51" s="161">
         <v>2</v>
       </c>
       <c r="I51" s="63">
@@ -5506,22 +5629,22 @@
         <v>43</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="C52" s="142" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" s="164">
-        <v>2</v>
-      </c>
-      <c r="E52" s="169"/>
-      <c r="F52" s="186" t="s">
-        <v>425</v>
-      </c>
-      <c r="G52" s="186" t="s">
-        <v>166</v>
-      </c>
-      <c r="H52" s="187">
+        <v>274</v>
+      </c>
+      <c r="C52" s="138" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="141">
+        <v>2</v>
+      </c>
+      <c r="E52" s="174"/>
+      <c r="F52" s="160" t="s">
+        <v>422</v>
+      </c>
+      <c r="G52" s="160" t="s">
+        <v>164</v>
+      </c>
+      <c r="H52" s="161">
         <v>2</v>
       </c>
       <c r="I52" s="63">
@@ -5538,22 +5661,22 @@
         <v>44</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="C53" s="143" t="s">
-        <v>484</v>
-      </c>
-      <c r="D53" s="166">
+        <v>275</v>
+      </c>
+      <c r="C53" s="139" t="s">
+        <v>481</v>
+      </c>
+      <c r="D53" s="143">
         <v>3</v>
       </c>
-      <c r="E53" s="169"/>
-      <c r="F53" s="186" t="s">
-        <v>426</v>
-      </c>
-      <c r="G53" s="186" t="s">
-        <v>483</v>
-      </c>
-      <c r="H53" s="187">
+      <c r="E53" s="174"/>
+      <c r="F53" s="160" t="s">
+        <v>423</v>
+      </c>
+      <c r="G53" s="160" t="s">
+        <v>480</v>
+      </c>
+      <c r="H53" s="161">
         <v>3</v>
       </c>
       <c r="I53" s="63">
@@ -5562,39 +5685,43 @@
       <c r="J53" s="63">
         <v>1</v>
       </c>
-      <c r="K53" s="77"/>
-    </row>
-    <row r="54" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="171">
+      <c r="K53" s="77" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="150" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="145">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B54" s="171" t="s">
-        <v>279</v>
-      </c>
-      <c r="C54" s="172" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="179">
-        <v>2</v>
-      </c>
-      <c r="E54" s="169"/>
-      <c r="F54" s="188" t="s">
-        <v>427</v>
-      </c>
-      <c r="G54" s="188" t="s">
-        <v>358</v>
-      </c>
-      <c r="H54" s="189">
-        <v>2</v>
-      </c>
-      <c r="I54" s="178">
+      <c r="B54" s="145" t="s">
+        <v>276</v>
+      </c>
+      <c r="C54" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="153">
+        <v>2</v>
+      </c>
+      <c r="E54" s="174"/>
+      <c r="F54" s="162" t="s">
+        <v>424</v>
+      </c>
+      <c r="G54" s="162" t="s">
+        <v>355</v>
+      </c>
+      <c r="H54" s="163">
+        <v>2</v>
+      </c>
+      <c r="I54" s="152">
         <v>1</v>
       </c>
-      <c r="J54" s="178">
+      <c r="J54" s="152">
         <v>0</v>
       </c>
-      <c r="K54" s="175"/>
+      <c r="K54" s="149" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="53">
@@ -5602,110 +5729,130 @@
         <v>46</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="C55" s="142" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="166">
+        <v>277</v>
+      </c>
+      <c r="C55" s="138" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="143">
         <v>3</v>
       </c>
-      <c r="E55" s="169"/>
-      <c r="F55" s="186" t="s">
-        <v>428</v>
-      </c>
-      <c r="G55" s="186" t="s">
-        <v>168</v>
-      </c>
-      <c r="H55" s="187">
+      <c r="E55" s="174"/>
+      <c r="F55" s="160" t="s">
+        <v>425</v>
+      </c>
+      <c r="G55" s="160" t="s">
+        <v>166</v>
+      </c>
+      <c r="H55" s="161">
         <v>3</v>
       </c>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="77"/>
+      <c r="I55" s="63">
+        <v>0</v>
+      </c>
+      <c r="J55" s="63">
+        <v>1</v>
+      </c>
+      <c r="K55" s="77" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="56" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="53">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B56" s="185" t="s">
-        <v>281</v>
-      </c>
-      <c r="C56" s="142" t="s">
-        <v>169</v>
-      </c>
-      <c r="D56" s="164">
-        <v>2</v>
-      </c>
-      <c r="E56" s="169"/>
-      <c r="F56" s="186" t="s">
-        <v>429</v>
-      </c>
-      <c r="G56" s="186" t="s">
-        <v>169</v>
-      </c>
-      <c r="H56" s="187">
-        <v>2</v>
-      </c>
-      <c r="I56" s="63"/>
-      <c r="J56" s="63"/>
+      <c r="B56" s="159" t="s">
+        <v>278</v>
+      </c>
+      <c r="C56" s="138" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="141">
+        <v>2</v>
+      </c>
+      <c r="E56" s="174"/>
+      <c r="F56" s="160" t="s">
+        <v>426</v>
+      </c>
+      <c r="G56" s="160" t="s">
+        <v>167</v>
+      </c>
+      <c r="H56" s="161">
+        <v>2</v>
+      </c>
+      <c r="I56" s="63">
+        <v>0</v>
+      </c>
+      <c r="J56" s="63">
+        <v>1</v>
+      </c>
       <c r="K56" s="77"/>
     </row>
-    <row r="57" spans="1:11" s="176" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="171">
+    <row r="57" spans="1:11" s="150" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="145">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B57" s="183" t="s">
-        <v>282</v>
-      </c>
-      <c r="C57" s="172" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" s="179">
-        <v>2</v>
-      </c>
-      <c r="E57" s="169"/>
-      <c r="F57" s="188" t="s">
-        <v>430</v>
-      </c>
-      <c r="G57" s="188" t="s">
-        <v>359</v>
-      </c>
-      <c r="H57" s="189">
-        <v>2</v>
-      </c>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="77"/>
-    </row>
-    <row r="58" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="157" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" s="146" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="153">
+        <v>2</v>
+      </c>
+      <c r="E57" s="174"/>
+      <c r="F57" s="162" t="s">
+        <v>427</v>
+      </c>
+      <c r="G57" s="162" t="s">
+        <v>356</v>
+      </c>
+      <c r="H57" s="163">
+        <v>2</v>
+      </c>
+      <c r="I57" s="152">
+        <v>1</v>
+      </c>
+      <c r="J57" s="152">
+        <v>0</v>
+      </c>
+      <c r="K57" s="149" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="53">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C58" s="142" t="s">
-        <v>171</v>
-      </c>
-      <c r="D58" s="166">
-        <v>2</v>
-      </c>
-      <c r="E58" s="169"/>
-      <c r="F58" s="186" t="s">
-        <v>431</v>
-      </c>
-      <c r="G58" s="186" t="s">
-        <v>171</v>
-      </c>
-      <c r="H58" s="187">
-        <v>2</v>
-      </c>
-      <c r="I58" s="63"/>
-      <c r="J58" s="63"/>
+        <v>280</v>
+      </c>
+      <c r="C58" s="138" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="143">
+        <v>2</v>
+      </c>
+      <c r="E58" s="174"/>
+      <c r="F58" s="160" t="s">
+        <v>428</v>
+      </c>
+      <c r="G58" s="160" t="s">
+        <v>169</v>
+      </c>
+      <c r="H58" s="161">
+        <v>2</v>
+      </c>
+      <c r="I58" s="63">
+        <v>0</v>
+      </c>
+      <c r="J58" s="63">
+        <v>1</v>
+      </c>
       <c r="K58" s="77"/>
     </row>
     <row r="59" spans="1:11" s="13" customFormat="1" ht="144" x14ac:dyDescent="0.25">
@@ -5714,26 +5861,30 @@
         <v>50</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" s="142" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="166">
+        <v>281</v>
+      </c>
+      <c r="C59" s="138" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="143">
         <v>3</v>
       </c>
-      <c r="E59" s="169"/>
-      <c r="F59" s="186" t="s">
-        <v>432</v>
-      </c>
-      <c r="G59" s="186" t="s">
-        <v>172</v>
-      </c>
-      <c r="H59" s="187">
+      <c r="E59" s="174"/>
+      <c r="F59" s="160" t="s">
+        <v>429</v>
+      </c>
+      <c r="G59" s="160" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59" s="161">
         <v>3</v>
       </c>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
+      <c r="I59" s="63">
+        <v>0</v>
+      </c>
+      <c r="J59" s="63">
+        <v>1</v>
+      </c>
       <c r="K59" s="77"/>
     </row>
     <row r="60" spans="1:11" s="13" customFormat="1" ht="126" x14ac:dyDescent="0.25">
@@ -5742,26 +5893,30 @@
         <v>51</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C60" s="142" t="s">
-        <v>173</v>
-      </c>
-      <c r="D60" s="164">
-        <v>2</v>
-      </c>
-      <c r="E60" s="169"/>
-      <c r="F60" s="186" t="s">
-        <v>433</v>
-      </c>
-      <c r="G60" s="186" t="s">
-        <v>173</v>
-      </c>
-      <c r="H60" s="187">
-        <v>2</v>
-      </c>
-      <c r="I60" s="63"/>
-      <c r="J60" s="63"/>
+        <v>282</v>
+      </c>
+      <c r="C60" s="138" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="141">
+        <v>2</v>
+      </c>
+      <c r="E60" s="174"/>
+      <c r="F60" s="160" t="s">
+        <v>430</v>
+      </c>
+      <c r="G60" s="160" t="s">
+        <v>171</v>
+      </c>
+      <c r="H60" s="161">
+        <v>2</v>
+      </c>
+      <c r="I60" s="63">
+        <v>0</v>
+      </c>
+      <c r="J60" s="63">
+        <v>1</v>
+      </c>
       <c r="K60" s="77"/>
     </row>
     <row r="61" spans="1:11" s="13" customFormat="1" ht="108" x14ac:dyDescent="0.25">
@@ -5770,113 +5925,133 @@
         <v>52</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="C61" s="142" t="s">
-        <v>174</v>
-      </c>
-      <c r="D61" s="166">
+        <v>283</v>
+      </c>
+      <c r="C61" s="138" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="143">
         <v>3</v>
       </c>
-      <c r="E61" s="168" t="s">
-        <v>229</v>
-      </c>
-      <c r="F61" s="186" t="s">
-        <v>434</v>
-      </c>
-      <c r="G61" s="186" t="s">
-        <v>174</v>
-      </c>
-      <c r="H61" s="187">
+      <c r="E61" s="173" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="160" t="s">
+        <v>431</v>
+      </c>
+      <c r="G61" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="H61" s="161">
         <v>3</v>
       </c>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
+      <c r="I61" s="63">
+        <v>0</v>
+      </c>
+      <c r="J61" s="63">
+        <v>1</v>
+      </c>
       <c r="K61" s="77"/>
     </row>
-    <row r="62" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="53">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C62" s="142" t="s">
-        <v>175</v>
-      </c>
-      <c r="D62" s="166">
+        <v>284</v>
+      </c>
+      <c r="C62" s="138" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="143">
         <v>3</v>
       </c>
-      <c r="E62" s="169"/>
-      <c r="F62" s="186" t="s">
-        <v>435</v>
-      </c>
-      <c r="G62" s="186" t="s">
-        <v>175</v>
-      </c>
-      <c r="H62" s="187">
+      <c r="E62" s="174"/>
+      <c r="F62" s="160" t="s">
+        <v>432</v>
+      </c>
+      <c r="G62" s="160" t="s">
+        <v>173</v>
+      </c>
+      <c r="H62" s="161">
         <v>3</v>
       </c>
-      <c r="I62" s="63"/>
-      <c r="J62" s="63"/>
+      <c r="I62" s="63">
+        <v>0</v>
+      </c>
+      <c r="J62" s="63">
+        <v>1</v>
+      </c>
       <c r="K62" s="77"/>
     </row>
-    <row r="63" spans="1:11" s="176" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="171">
+    <row r="63" spans="1:11" s="150" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="145">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B63" s="176" t="s">
-        <v>288</v>
-      </c>
-      <c r="C63" s="172" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" s="179">
-        <v>2</v>
-      </c>
-      <c r="E63" s="169"/>
-      <c r="F63" s="188" t="s">
-        <v>436</v>
-      </c>
-      <c r="G63" s="188" t="s">
-        <v>360</v>
-      </c>
-      <c r="H63" s="189">
-        <v>2</v>
-      </c>
-      <c r="I63" s="63"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="77"/>
-    </row>
-    <row r="64" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.3">
-      <c r="A64" s="171">
+      <c r="B63" s="150" t="s">
+        <v>285</v>
+      </c>
+      <c r="C63" s="146" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="153">
+        <v>2</v>
+      </c>
+      <c r="E63" s="174"/>
+      <c r="F63" s="162" t="s">
+        <v>433</v>
+      </c>
+      <c r="G63" s="162" t="s">
+        <v>357</v>
+      </c>
+      <c r="H63" s="163">
+        <v>2</v>
+      </c>
+      <c r="I63" s="152">
+        <v>1</v>
+      </c>
+      <c r="J63" s="152">
+        <v>0</v>
+      </c>
+      <c r="K63" s="149" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="150" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+      <c r="A64" s="145">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B64" s="184" t="s">
-        <v>289</v>
-      </c>
-      <c r="C64" s="172" t="s">
-        <v>177</v>
-      </c>
-      <c r="D64" s="182">
-        <v>2</v>
-      </c>
-      <c r="E64" s="169"/>
-      <c r="F64" s="188" t="s">
-        <v>437</v>
-      </c>
-      <c r="G64" s="188" t="s">
-        <v>361</v>
-      </c>
-      <c r="H64" s="189">
+      <c r="B64" s="158" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" s="146" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" s="156">
+        <v>2</v>
+      </c>
+      <c r="E64" s="174"/>
+      <c r="F64" s="162" t="s">
+        <v>434</v>
+      </c>
+      <c r="G64" s="162" t="s">
+        <v>358</v>
+      </c>
+      <c r="H64" s="163">
         <v>1</v>
       </c>
-      <c r="I64" s="63"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="77"/>
+      <c r="I64" s="152">
+        <v>1</v>
+      </c>
+      <c r="J64" s="152">
+        <v>0</v>
+      </c>
+      <c r="K64" s="149" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="65" spans="1:11" ht="126" x14ac:dyDescent="0.3">
       <c r="A65" s="53">
@@ -5884,195 +6059,217 @@
         <v>56</v>
       </c>
       <c r="B65" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="C65" s="142" t="s">
-        <v>178</v>
-      </c>
-      <c r="D65" s="164">
-        <v>2</v>
-      </c>
-      <c r="E65" s="169"/>
-      <c r="F65" s="186" t="s">
-        <v>438</v>
-      </c>
-      <c r="G65" s="186" t="s">
-        <v>178</v>
-      </c>
-      <c r="H65" s="187">
-        <v>2</v>
-      </c>
-      <c r="I65" s="63"/>
-      <c r="J65" s="63"/>
+        <v>287</v>
+      </c>
+      <c r="C65" s="138" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="141">
+        <v>2</v>
+      </c>
+      <c r="E65" s="174"/>
+      <c r="F65" s="160" t="s">
+        <v>435</v>
+      </c>
+      <c r="G65" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="H65" s="161">
+        <v>2</v>
+      </c>
+      <c r="I65" s="63">
+        <v>0</v>
+      </c>
+      <c r="J65" s="63">
+        <v>1</v>
+      </c>
       <c r="K65" s="77"/>
     </row>
-    <row r="66" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.3">
-      <c r="A66" s="171">
+    <row r="66" spans="1:11" s="150" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+      <c r="A66" s="145">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B66" s="184" t="s">
-        <v>291</v>
-      </c>
-      <c r="C66" s="172" t="s">
-        <v>179</v>
-      </c>
-      <c r="D66" s="182">
-        <v>2</v>
-      </c>
-      <c r="E66" s="169"/>
-      <c r="F66" s="188" t="s">
-        <v>439</v>
-      </c>
-      <c r="G66" s="188" t="s">
-        <v>362</v>
-      </c>
-      <c r="H66" s="189">
+      <c r="B66" s="158" t="s">
+        <v>288</v>
+      </c>
+      <c r="C66" s="146" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="156">
+        <v>2</v>
+      </c>
+      <c r="E66" s="174"/>
+      <c r="F66" s="162" t="s">
+        <v>436</v>
+      </c>
+      <c r="G66" s="162" t="s">
+        <v>359</v>
+      </c>
+      <c r="H66" s="163">
         <v>1</v>
       </c>
-      <c r="I66" s="63"/>
-      <c r="J66" s="63"/>
-      <c r="K66" s="77"/>
-    </row>
-    <row r="67" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="I66" s="152">
+        <v>1</v>
+      </c>
+      <c r="J66" s="152"/>
+      <c r="K66" s="149" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="53">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>292</v>
-      </c>
-      <c r="C67" s="142" t="s">
-        <v>180</v>
-      </c>
-      <c r="D67" s="164">
-        <v>2</v>
-      </c>
-      <c r="E67" s="169"/>
-      <c r="F67" s="186" t="s">
-        <v>440</v>
-      </c>
-      <c r="G67" s="186" t="s">
-        <v>180</v>
-      </c>
-      <c r="H67" s="187">
+        <v>289</v>
+      </c>
+      <c r="C67" s="138" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="141">
+        <v>2</v>
+      </c>
+      <c r="E67" s="174"/>
+      <c r="F67" s="160" t="s">
+        <v>437</v>
+      </c>
+      <c r="G67" s="160" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" s="161">
         <v>2</v>
       </c>
       <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
+      <c r="J67" s="63">
+        <v>1</v>
+      </c>
       <c r="K67" s="77"/>
     </row>
-    <row r="68" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="53">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>293</v>
-      </c>
-      <c r="C68" s="142" t="s">
-        <v>181</v>
-      </c>
-      <c r="D68" s="164">
-        <v>2</v>
-      </c>
-      <c r="E68" s="169"/>
-      <c r="F68" s="186" t="s">
-        <v>441</v>
-      </c>
-      <c r="G68" s="186" t="s">
-        <v>181</v>
-      </c>
-      <c r="H68" s="187">
+        <v>290</v>
+      </c>
+      <c r="C68" s="138" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" s="141">
+        <v>2</v>
+      </c>
+      <c r="E68" s="174"/>
+      <c r="F68" s="160" t="s">
+        <v>438</v>
+      </c>
+      <c r="G68" s="160" t="s">
+        <v>179</v>
+      </c>
+      <c r="H68" s="161">
         <v>2</v>
       </c>
       <c r="I68" s="63"/>
-      <c r="J68" s="63"/>
+      <c r="J68" s="63">
+        <v>1</v>
+      </c>
       <c r="K68" s="77"/>
     </row>
-    <row r="69" spans="1:11" s="176" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="171">
+    <row r="69" spans="1:11" s="150" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="145">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B69" s="176" t="s">
-        <v>294</v>
-      </c>
-      <c r="C69" s="172" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" s="182">
-        <v>2</v>
-      </c>
-      <c r="E69" s="169"/>
-      <c r="F69" s="188" t="s">
-        <v>442</v>
-      </c>
-      <c r="G69" s="188" t="s">
-        <v>363</v>
-      </c>
-      <c r="H69" s="189">
-        <v>2</v>
-      </c>
-      <c r="I69" s="63"/>
+      <c r="B69" s="150" t="s">
+        <v>291</v>
+      </c>
+      <c r="C69" s="146" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" s="156">
+        <v>2</v>
+      </c>
+      <c r="E69" s="174"/>
+      <c r="F69" s="162" t="s">
+        <v>439</v>
+      </c>
+      <c r="G69" s="162" t="s">
+        <v>360</v>
+      </c>
+      <c r="H69" s="163">
+        <v>2</v>
+      </c>
+      <c r="I69" s="63">
+        <v>1</v>
+      </c>
       <c r="J69" s="63"/>
-      <c r="K69" s="77"/>
-    </row>
-    <row r="70" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="77" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="53">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>295</v>
-      </c>
-      <c r="C70" s="142" t="s">
-        <v>183</v>
-      </c>
-      <c r="D70" s="164">
-        <v>2</v>
-      </c>
-      <c r="E70" s="169"/>
-      <c r="F70" s="186" t="s">
-        <v>443</v>
-      </c>
-      <c r="G70" s="186" t="s">
-        <v>183</v>
-      </c>
-      <c r="H70" s="187">
+        <v>292</v>
+      </c>
+      <c r="C70" s="138" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="141">
+        <v>2</v>
+      </c>
+      <c r="E70" s="174"/>
+      <c r="F70" s="160" t="s">
+        <v>440</v>
+      </c>
+      <c r="G70" s="160" t="s">
+        <v>181</v>
+      </c>
+      <c r="H70" s="161">
         <v>2</v>
       </c>
       <c r="I70" s="63"/>
-      <c r="J70" s="63"/>
+      <c r="J70" s="63">
+        <v>1</v>
+      </c>
       <c r="K70" s="77"/>
     </row>
-    <row r="71" spans="1:11" s="176" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="171">
+    <row r="71" spans="1:11" s="150" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="145">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B71" s="176" t="s">
-        <v>296</v>
-      </c>
-      <c r="C71" s="172" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" s="179">
-        <v>2</v>
-      </c>
-      <c r="E71" s="169"/>
-      <c r="F71" s="188" t="s">
-        <v>444</v>
-      </c>
-      <c r="G71" s="188" t="s">
-        <v>364</v>
-      </c>
-      <c r="H71" s="189">
-        <v>2</v>
-      </c>
-      <c r="I71" s="63"/>
+      <c r="B71" s="150" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71" s="146" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="153">
+        <v>2</v>
+      </c>
+      <c r="E71" s="174"/>
+      <c r="F71" s="162" t="s">
+        <v>441</v>
+      </c>
+      <c r="G71" s="162" t="s">
+        <v>361</v>
+      </c>
+      <c r="H71" s="163">
+        <v>2</v>
+      </c>
+      <c r="I71" s="63">
+        <v>1</v>
+      </c>
       <c r="J71" s="63"/>
-      <c r="K71" s="77"/>
+      <c r="K71" s="77" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="72" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="53">
@@ -6080,112 +6277,124 @@
         <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>297</v>
-      </c>
-      <c r="C72" s="142" t="s">
-        <v>185</v>
-      </c>
-      <c r="D72" s="164">
-        <v>2</v>
-      </c>
-      <c r="E72" s="170"/>
-      <c r="F72" s="186" t="s">
-        <v>445</v>
-      </c>
-      <c r="G72" s="186" t="s">
-        <v>185</v>
-      </c>
-      <c r="H72" s="187">
+        <v>294</v>
+      </c>
+      <c r="C72" s="138" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="141">
+        <v>2</v>
+      </c>
+      <c r="E72" s="175"/>
+      <c r="F72" s="160" t="s">
+        <v>442</v>
+      </c>
+      <c r="G72" s="160" t="s">
+        <v>183</v>
+      </c>
+      <c r="H72" s="161">
         <v>2</v>
       </c>
       <c r="I72" s="63"/>
-      <c r="J72" s="63"/>
+      <c r="J72" s="63">
+        <v>1</v>
+      </c>
       <c r="K72" s="77"/>
     </row>
-    <row r="73" spans="1:11" s="176" customFormat="1" ht="108" x14ac:dyDescent="0.25">
-      <c r="A73" s="171">
+    <row r="73" spans="1:11" s="150" customFormat="1" ht="108" x14ac:dyDescent="0.25">
+      <c r="A73" s="145">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B73" s="176" t="s">
-        <v>298</v>
-      </c>
-      <c r="C73" s="172" t="s">
-        <v>186</v>
-      </c>
-      <c r="D73" s="182">
-        <v>2</v>
-      </c>
-      <c r="E73" s="168" t="s">
-        <v>230</v>
-      </c>
-      <c r="F73" s="188" t="s">
-        <v>446</v>
-      </c>
-      <c r="G73" s="188" t="s">
-        <v>365</v>
-      </c>
-      <c r="H73" s="189">
-        <v>2</v>
-      </c>
-      <c r="I73" s="63"/>
+      <c r="B73" s="150" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="156">
+        <v>2</v>
+      </c>
+      <c r="E73" s="173" t="s">
+        <v>227</v>
+      </c>
+      <c r="F73" s="162" t="s">
+        <v>443</v>
+      </c>
+      <c r="G73" s="162" t="s">
+        <v>362</v>
+      </c>
+      <c r="H73" s="163">
+        <v>2</v>
+      </c>
+      <c r="I73" s="63">
+        <v>1</v>
+      </c>
       <c r="J73" s="63"/>
-      <c r="K73" s="77"/>
-    </row>
-    <row r="74" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+      <c r="K73" s="77" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="53">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>299</v>
-      </c>
-      <c r="C74" s="142" t="s">
-        <v>187</v>
-      </c>
-      <c r="D74" s="167">
-        <v>2</v>
-      </c>
-      <c r="E74" s="169"/>
-      <c r="F74" s="186" t="s">
-        <v>447</v>
-      </c>
-      <c r="G74" s="186" t="s">
-        <v>187</v>
-      </c>
-      <c r="H74" s="187">
+        <v>296</v>
+      </c>
+      <c r="C74" s="138" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="144">
+        <v>2</v>
+      </c>
+      <c r="E74" s="174"/>
+      <c r="F74" s="160" t="s">
+        <v>444</v>
+      </c>
+      <c r="G74" s="160" t="s">
+        <v>185</v>
+      </c>
+      <c r="H74" s="161">
         <v>2</v>
       </c>
       <c r="I74" s="63"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="77"/>
-    </row>
-    <row r="75" spans="1:11" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J74" s="63">
+        <v>1</v>
+      </c>
+      <c r="K74" s="77" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="17" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="53">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="C75" s="142" t="s">
-        <v>188</v>
-      </c>
-      <c r="D75" s="165">
+        <v>297</v>
+      </c>
+      <c r="C75" s="138" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="142">
         <v>3</v>
       </c>
-      <c r="E75" s="169"/>
-      <c r="F75" s="186" t="s">
-        <v>448</v>
-      </c>
-      <c r="G75" s="186" t="s">
-        <v>188</v>
-      </c>
-      <c r="H75" s="187">
+      <c r="E75" s="174"/>
+      <c r="F75" s="160" t="s">
+        <v>445</v>
+      </c>
+      <c r="G75" s="160" t="s">
+        <v>186</v>
+      </c>
+      <c r="H75" s="161">
         <v>3</v>
       </c>
       <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
+      <c r="J75" s="63">
+        <v>1</v>
+      </c>
       <c r="K75" s="77"/>
     </row>
     <row r="76" spans="1:11" s="17" customFormat="1" ht="108" x14ac:dyDescent="0.25">
@@ -6194,225 +6403,251 @@
         <v>67</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="C76" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="D76" s="167">
-        <v>2</v>
-      </c>
-      <c r="E76" s="169"/>
-      <c r="F76" s="186" t="s">
-        <v>449</v>
-      </c>
-      <c r="G76" s="186" t="s">
-        <v>189</v>
-      </c>
-      <c r="H76" s="187">
+        <v>298</v>
+      </c>
+      <c r="C76" s="138" t="s">
+        <v>495</v>
+      </c>
+      <c r="D76" s="144">
+        <v>2</v>
+      </c>
+      <c r="E76" s="174"/>
+      <c r="F76" s="160" t="s">
+        <v>446</v>
+      </c>
+      <c r="G76" s="160" t="s">
+        <v>494</v>
+      </c>
+      <c r="H76" s="161">
         <v>2</v>
       </c>
       <c r="I76" s="63"/>
-      <c r="J76" s="63"/>
-      <c r="K76" s="77"/>
-    </row>
-    <row r="77" spans="1:11" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J76" s="63">
+        <v>1</v>
+      </c>
+      <c r="K76" s="77" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="17" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="53">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="C77" s="142" t="s">
-        <v>190</v>
-      </c>
-      <c r="D77" s="167">
-        <v>2</v>
-      </c>
-      <c r="E77" s="169"/>
-      <c r="F77" s="186" t="s">
-        <v>450</v>
-      </c>
-      <c r="G77" s="186" t="s">
-        <v>366</v>
-      </c>
-      <c r="H77" s="187">
+        <v>299</v>
+      </c>
+      <c r="C77" s="138" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="144">
+        <v>2</v>
+      </c>
+      <c r="E77" s="174"/>
+      <c r="F77" s="160" t="s">
+        <v>447</v>
+      </c>
+      <c r="G77" s="160" t="s">
+        <v>363</v>
+      </c>
+      <c r="H77" s="161">
         <v>2</v>
       </c>
       <c r="I77" s="63"/>
-      <c r="J77" s="63"/>
+      <c r="J77" s="63">
+        <v>1</v>
+      </c>
       <c r="K77" s="77"/>
     </row>
-    <row r="78" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="53">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>303</v>
-      </c>
-      <c r="C78" s="143" t="s">
-        <v>191</v>
-      </c>
-      <c r="D78" s="165">
+        <v>300</v>
+      </c>
+      <c r="C78" s="139" t="s">
+        <v>188</v>
+      </c>
+      <c r="D78" s="142">
         <v>3</v>
       </c>
-      <c r="E78" s="169"/>
-      <c r="F78" s="186" t="s">
-        <v>451</v>
-      </c>
-      <c r="G78" s="186" t="s">
-        <v>191</v>
-      </c>
-      <c r="H78" s="187">
+      <c r="E78" s="174"/>
+      <c r="F78" s="160" t="s">
+        <v>448</v>
+      </c>
+      <c r="G78" s="160" t="s">
+        <v>188</v>
+      </c>
+      <c r="H78" s="161">
         <v>3</v>
       </c>
       <c r="I78" s="63"/>
-      <c r="J78" s="63"/>
+      <c r="J78" s="63">
+        <v>1</v>
+      </c>
       <c r="K78" s="77"/>
     </row>
-    <row r="79" spans="1:11" s="176" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="171">
+    <row r="79" spans="1:11" s="150" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="145">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B79" s="176" t="s">
-        <v>304</v>
-      </c>
-      <c r="C79" s="172" t="s">
-        <v>192</v>
-      </c>
-      <c r="D79" s="182">
-        <v>2</v>
-      </c>
-      <c r="E79" s="169"/>
-      <c r="F79" s="188" t="s">
-        <v>452</v>
-      </c>
-      <c r="G79" s="188" t="s">
-        <v>367</v>
-      </c>
-      <c r="H79" s="189">
+      <c r="B79" s="150" t="s">
+        <v>301</v>
+      </c>
+      <c r="C79" s="146" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" s="156">
+        <v>2</v>
+      </c>
+      <c r="E79" s="174"/>
+      <c r="F79" s="162" t="s">
+        <v>449</v>
+      </c>
+      <c r="G79" s="162" t="s">
+        <v>364</v>
+      </c>
+      <c r="H79" s="163">
         <v>1</v>
       </c>
-      <c r="I79" s="63"/>
+      <c r="I79" s="63">
+        <v>1</v>
+      </c>
       <c r="J79" s="63"/>
-      <c r="K79" s="77"/>
-    </row>
-    <row r="80" spans="1:11" s="176" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="171">
+      <c r="K79" s="77" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="150" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="145">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B80" s="176" t="s">
-        <v>305</v>
-      </c>
-      <c r="C80" s="172" t="s">
-        <v>193</v>
-      </c>
-      <c r="D80" s="182">
-        <v>2</v>
-      </c>
-      <c r="E80" s="169"/>
-      <c r="F80" s="188" t="s">
-        <v>453</v>
-      </c>
-      <c r="G80" s="188" t="s">
-        <v>368</v>
-      </c>
-      <c r="H80" s="189">
-        <v>2</v>
-      </c>
-      <c r="I80" s="63"/>
+      <c r="B80" s="150" t="s">
+        <v>302</v>
+      </c>
+      <c r="C80" s="146" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" s="156">
+        <v>2</v>
+      </c>
+      <c r="E80" s="174"/>
+      <c r="F80" s="162" t="s">
+        <v>450</v>
+      </c>
+      <c r="G80" s="162" t="s">
+        <v>365</v>
+      </c>
+      <c r="H80" s="163">
+        <v>2</v>
+      </c>
+      <c r="I80" s="63">
+        <v>1</v>
+      </c>
       <c r="J80" s="63"/>
-      <c r="K80" s="77"/>
-    </row>
-    <row r="81" spans="1:11" s="17" customFormat="1" ht="108" x14ac:dyDescent="0.25">
+      <c r="K80" s="77" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="17" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="53">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="C81" s="142" t="s">
-        <v>194</v>
-      </c>
-      <c r="D81" s="165">
-        <v>2</v>
-      </c>
-      <c r="E81" s="169"/>
-      <c r="F81" s="186" t="s">
-        <v>454</v>
-      </c>
-      <c r="G81" s="186" t="s">
-        <v>194</v>
-      </c>
-      <c r="H81" s="187">
+        <v>303</v>
+      </c>
+      <c r="C81" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" s="142">
+        <v>2</v>
+      </c>
+      <c r="E81" s="174"/>
+      <c r="F81" s="160" t="s">
+        <v>451</v>
+      </c>
+      <c r="G81" s="160" t="s">
+        <v>191</v>
+      </c>
+      <c r="H81" s="161">
         <v>2</v>
       </c>
       <c r="I81" s="63"/>
-      <c r="J81" s="63"/>
+      <c r="J81" s="63">
+        <v>1</v>
+      </c>
       <c r="K81" s="77"/>
     </row>
-    <row r="82" spans="1:11" s="176" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="171">
+    <row r="82" spans="1:11" s="150" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="145">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B82" s="176" t="s">
-        <v>307</v>
-      </c>
-      <c r="C82" s="172" t="s">
-        <v>195</v>
-      </c>
-      <c r="D82" s="177">
-        <v>2</v>
-      </c>
-      <c r="E82" s="170"/>
-      <c r="F82" s="188" t="s">
-        <v>455</v>
-      </c>
-      <c r="G82" s="188" t="s">
-        <v>369</v>
-      </c>
-      <c r="H82" s="189">
-        <v>2</v>
-      </c>
-      <c r="I82" s="63"/>
+      <c r="B82" s="150" t="s">
+        <v>304</v>
+      </c>
+      <c r="C82" s="146" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" s="151">
+        <v>2</v>
+      </c>
+      <c r="E82" s="175"/>
+      <c r="F82" s="162" t="s">
+        <v>452</v>
+      </c>
+      <c r="G82" s="162" t="s">
+        <v>366</v>
+      </c>
+      <c r="H82" s="163">
+        <v>2</v>
+      </c>
+      <c r="I82" s="63">
+        <v>1</v>
+      </c>
       <c r="J82" s="63"/>
-      <c r="K82" s="77"/>
-    </row>
-    <row r="83" spans="1:11" s="176" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="171">
+      <c r="K82" s="77" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="150" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="145">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B83" s="176" t="s">
-        <v>308</v>
-      </c>
-      <c r="C83" s="172" t="s">
-        <v>196</v>
-      </c>
-      <c r="D83" s="182">
-        <v>2</v>
-      </c>
-      <c r="E83" s="168" t="s">
-        <v>231</v>
-      </c>
-      <c r="F83" s="188" t="s">
-        <v>456</v>
-      </c>
-      <c r="G83" s="188" t="s">
-        <v>370</v>
-      </c>
-      <c r="H83" s="189">
-        <v>2</v>
-      </c>
-      <c r="I83" s="63"/>
+      <c r="B83" s="150" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" s="146" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" s="156">
+        <v>2</v>
+      </c>
+      <c r="E83" s="173" t="s">
+        <v>228</v>
+      </c>
+      <c r="F83" s="162" t="s">
+        <v>453</v>
+      </c>
+      <c r="G83" s="162" t="s">
+        <v>367</v>
+      </c>
+      <c r="H83" s="163">
+        <v>2</v>
+      </c>
+      <c r="I83" s="63">
+        <v>1</v>
+      </c>
       <c r="J83" s="63"/>
-      <c r="K83" s="77"/>
+      <c r="K83" s="77" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="84" spans="1:11" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="53">
@@ -6420,134 +6655,146 @@
         <v>75</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="C84" s="142" t="s">
-        <v>197</v>
-      </c>
-      <c r="D84" s="165">
-        <v>2</v>
-      </c>
-      <c r="E84" s="169"/>
-      <c r="F84" s="186" t="s">
-        <v>457</v>
-      </c>
-      <c r="G84" s="186" t="s">
-        <v>197</v>
-      </c>
-      <c r="H84" s="187">
+        <v>306</v>
+      </c>
+      <c r="C84" s="138" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84" s="142">
+        <v>2</v>
+      </c>
+      <c r="E84" s="174"/>
+      <c r="F84" s="160" t="s">
+        <v>454</v>
+      </c>
+      <c r="G84" s="160" t="s">
+        <v>194</v>
+      </c>
+      <c r="H84" s="161">
         <v>2</v>
       </c>
       <c r="I84" s="63"/>
-      <c r="J84" s="63"/>
+      <c r="J84" s="63">
+        <v>1</v>
+      </c>
       <c r="K84" s="77"/>
     </row>
-    <row r="85" spans="1:11" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="17" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="53">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C85" s="142" t="s">
-        <v>198</v>
-      </c>
-      <c r="D85" s="167">
-        <v>2</v>
-      </c>
-      <c r="E85" s="169"/>
-      <c r="F85" s="186" t="s">
-        <v>458</v>
-      </c>
-      <c r="G85" s="186" t="s">
-        <v>198</v>
-      </c>
-      <c r="H85" s="187">
+        <v>307</v>
+      </c>
+      <c r="C85" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" s="144">
+        <v>2</v>
+      </c>
+      <c r="E85" s="174"/>
+      <c r="F85" s="160" t="s">
+        <v>455</v>
+      </c>
+      <c r="G85" s="160" t="s">
+        <v>195</v>
+      </c>
+      <c r="H85" s="161">
         <v>2</v>
       </c>
       <c r="I85" s="63"/>
-      <c r="J85" s="63"/>
+      <c r="J85" s="63">
+        <v>1</v>
+      </c>
       <c r="K85" s="77"/>
     </row>
-    <row r="86" spans="1:11" s="176" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A86" s="171">
+    <row r="86" spans="1:11" s="150" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="145">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B86" s="176" t="s">
-        <v>311</v>
-      </c>
-      <c r="C86" s="172" t="s">
-        <v>199</v>
-      </c>
-      <c r="D86" s="177">
-        <v>2</v>
-      </c>
-      <c r="E86" s="169"/>
-      <c r="F86" s="188" t="s">
-        <v>459</v>
-      </c>
-      <c r="G86" s="188" t="s">
-        <v>371</v>
-      </c>
-      <c r="H86" s="189">
-        <v>2</v>
-      </c>
-      <c r="I86" s="63"/>
+      <c r="B86" s="150" t="s">
+        <v>308</v>
+      </c>
+      <c r="C86" s="146" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" s="151">
+        <v>2</v>
+      </c>
+      <c r="E86" s="174"/>
+      <c r="F86" s="162" t="s">
+        <v>456</v>
+      </c>
+      <c r="G86" s="162" t="s">
+        <v>368</v>
+      </c>
+      <c r="H86" s="163">
+        <v>2</v>
+      </c>
+      <c r="I86" s="63">
+        <v>1</v>
+      </c>
       <c r="J86" s="63"/>
-      <c r="K86" s="77"/>
-    </row>
-    <row r="87" spans="1:11" s="176" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="171">
+      <c r="K86" s="77" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="150" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="145">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B87" s="176" t="s">
-        <v>312</v>
-      </c>
-      <c r="C87" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="D87" s="182">
-        <v>2</v>
-      </c>
-      <c r="E87" s="169"/>
-      <c r="F87" s="188" t="s">
-        <v>460</v>
-      </c>
-      <c r="G87" s="188" t="s">
-        <v>372</v>
-      </c>
-      <c r="H87" s="189">
-        <v>2</v>
-      </c>
-      <c r="I87" s="63"/>
+      <c r="B87" s="150" t="s">
+        <v>309</v>
+      </c>
+      <c r="C87" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" s="156">
+        <v>2</v>
+      </c>
+      <c r="E87" s="174"/>
+      <c r="F87" s="162" t="s">
+        <v>457</v>
+      </c>
+      <c r="G87" s="162" t="s">
+        <v>369</v>
+      </c>
+      <c r="H87" s="163">
+        <v>2</v>
+      </c>
+      <c r="I87" s="63">
+        <v>1</v>
+      </c>
       <c r="J87" s="63"/>
-      <c r="K87" s="77"/>
-    </row>
-    <row r="88" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A88" s="171">
+      <c r="K87" s="77" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="150" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="145">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B88" s="176" t="s">
-        <v>313</v>
-      </c>
-      <c r="C88" s="172" t="s">
-        <v>201</v>
-      </c>
-      <c r="D88" s="177">
-        <v>2</v>
-      </c>
-      <c r="E88" s="169"/>
-      <c r="F88" s="188" t="s">
-        <v>461</v>
-      </c>
-      <c r="G88" s="188" t="s">
-        <v>373</v>
-      </c>
-      <c r="H88" s="189">
+      <c r="B88" s="150" t="s">
+        <v>310</v>
+      </c>
+      <c r="C88" s="146" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" s="151">
+        <v>2</v>
+      </c>
+      <c r="E88" s="174"/>
+      <c r="F88" s="162" t="s">
+        <v>458</v>
+      </c>
+      <c r="G88" s="162" t="s">
+        <v>370</v>
+      </c>
+      <c r="H88" s="163">
         <v>2</v>
       </c>
       <c r="I88" s="63"/>
@@ -6560,52 +6807,52 @@
         <v>80</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="C89" s="142" t="s">
-        <v>202</v>
-      </c>
-      <c r="D89" s="165">
+        <v>311</v>
+      </c>
+      <c r="C89" s="138" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" s="142">
         <v>3</v>
       </c>
-      <c r="E89" s="170"/>
-      <c r="F89" s="186" t="s">
-        <v>462</v>
-      </c>
-      <c r="G89" s="186" t="s">
-        <v>202</v>
-      </c>
-      <c r="H89" s="187">
+      <c r="E89" s="175"/>
+      <c r="F89" s="160" t="s">
+        <v>459</v>
+      </c>
+      <c r="G89" s="160" t="s">
+        <v>199</v>
+      </c>
+      <c r="H89" s="161">
         <v>3</v>
       </c>
       <c r="I89" s="63"/>
       <c r="J89" s="63"/>
       <c r="K89" s="77"/>
     </row>
-    <row r="90" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="171">
+    <row r="90" spans="1:11" s="150" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="145">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B90" s="176" t="s">
-        <v>315</v>
-      </c>
-      <c r="C90" s="172" t="s">
-        <v>203</v>
-      </c>
-      <c r="D90" s="177">
-        <v>2</v>
-      </c>
-      <c r="E90" s="168" t="s">
-        <v>232</v>
-      </c>
-      <c r="F90" s="188" t="s">
-        <v>463</v>
-      </c>
-      <c r="G90" s="188" t="s">
-        <v>374</v>
-      </c>
-      <c r="H90" s="189">
+      <c r="B90" s="150" t="s">
+        <v>312</v>
+      </c>
+      <c r="C90" s="146" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" s="151">
+        <v>2</v>
+      </c>
+      <c r="E90" s="173" t="s">
+        <v>229</v>
+      </c>
+      <c r="F90" s="162" t="s">
+        <v>460</v>
+      </c>
+      <c r="G90" s="162" t="s">
+        <v>371</v>
+      </c>
+      <c r="H90" s="163">
         <v>2</v>
       </c>
       <c r="I90" s="63"/>
@@ -6618,78 +6865,78 @@
         <v>82</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="C91" s="142" t="s">
-        <v>204</v>
-      </c>
-      <c r="D91" s="165">
-        <v>2</v>
-      </c>
-      <c r="E91" s="169"/>
-      <c r="F91" s="186" t="s">
-        <v>464</v>
-      </c>
-      <c r="G91" s="186" t="s">
-        <v>204</v>
-      </c>
-      <c r="H91" s="187">
+        <v>313</v>
+      </c>
+      <c r="C91" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91" s="142">
+        <v>2</v>
+      </c>
+      <c r="E91" s="174"/>
+      <c r="F91" s="160" t="s">
+        <v>461</v>
+      </c>
+      <c r="G91" s="160" t="s">
+        <v>201</v>
+      </c>
+      <c r="H91" s="161">
         <v>2</v>
       </c>
       <c r="I91" s="63"/>
       <c r="J91" s="63"/>
       <c r="K91" s="77"/>
     </row>
-    <row r="92" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A92" s="171">
+    <row r="92" spans="1:11" s="150" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="145">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B92" s="176" t="s">
-        <v>317</v>
-      </c>
-      <c r="C92" s="172" t="s">
-        <v>205</v>
-      </c>
-      <c r="D92" s="177">
-        <v>2</v>
-      </c>
-      <c r="E92" s="169"/>
-      <c r="F92" s="188" t="s">
-        <v>465</v>
-      </c>
-      <c r="G92" s="188" t="s">
-        <v>375</v>
-      </c>
-      <c r="H92" s="189">
+      <c r="B92" s="150" t="s">
+        <v>314</v>
+      </c>
+      <c r="C92" s="146" t="s">
+        <v>202</v>
+      </c>
+      <c r="D92" s="151">
+        <v>2</v>
+      </c>
+      <c r="E92" s="174"/>
+      <c r="F92" s="162" t="s">
+        <v>462</v>
+      </c>
+      <c r="G92" s="162" t="s">
+        <v>372</v>
+      </c>
+      <c r="H92" s="163">
         <v>2</v>
       </c>
       <c r="I92" s="63"/>
       <c r="J92" s="63"/>
       <c r="K92" s="77"/>
     </row>
-    <row r="93" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A93" s="171">
+    <row r="93" spans="1:11" s="150" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A93" s="145">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B93" s="176" t="s">
-        <v>318</v>
-      </c>
-      <c r="C93" s="172" t="s">
-        <v>206</v>
-      </c>
-      <c r="D93" s="177">
-        <v>2</v>
-      </c>
-      <c r="E93" s="169"/>
-      <c r="F93" s="188" t="s">
-        <v>466</v>
-      </c>
-      <c r="G93" s="188" t="s">
-        <v>376</v>
-      </c>
-      <c r="H93" s="189">
+      <c r="B93" s="150" t="s">
+        <v>315</v>
+      </c>
+      <c r="C93" s="146" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" s="151">
+        <v>2</v>
+      </c>
+      <c r="E93" s="174"/>
+      <c r="F93" s="162" t="s">
+        <v>463</v>
+      </c>
+      <c r="G93" s="162" t="s">
+        <v>373</v>
+      </c>
+      <c r="H93" s="163">
         <v>2</v>
       </c>
       <c r="I93" s="63"/>
@@ -6702,22 +6949,22 @@
         <v>85</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="C94" s="142" t="s">
-        <v>207</v>
-      </c>
-      <c r="D94" s="165">
-        <v>2</v>
-      </c>
-      <c r="E94" s="169"/>
-      <c r="F94" s="186" t="s">
-        <v>467</v>
-      </c>
-      <c r="G94" s="186" t="s">
-        <v>207</v>
-      </c>
-      <c r="H94" s="187">
+        <v>316</v>
+      </c>
+      <c r="C94" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" s="142">
+        <v>2</v>
+      </c>
+      <c r="E94" s="174"/>
+      <c r="F94" s="160" t="s">
+        <v>464</v>
+      </c>
+      <c r="G94" s="160" t="s">
+        <v>204</v>
+      </c>
+      <c r="H94" s="161">
         <v>2</v>
       </c>
       <c r="I94" s="63"/>
@@ -6730,47 +6977,47 @@
         <v>86</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C95" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="D95" s="165">
-        <v>2</v>
-      </c>
-      <c r="E95" s="169"/>
-      <c r="F95" s="186" t="s">
-        <v>468</v>
-      </c>
-      <c r="G95" s="186" t="s">
-        <v>208</v>
-      </c>
-      <c r="H95" s="187">
+        <v>317</v>
+      </c>
+      <c r="C95" s="138" t="s">
+        <v>205</v>
+      </c>
+      <c r="D95" s="142">
+        <v>2</v>
+      </c>
+      <c r="E95" s="174"/>
+      <c r="F95" s="160" t="s">
+        <v>465</v>
+      </c>
+      <c r="G95" s="160" t="s">
+        <v>205</v>
+      </c>
+      <c r="H95" s="161">
         <v>2</v>
       </c>
       <c r="I95" s="63"/>
       <c r="J95" s="63"/>
       <c r="K95" s="77"/>
     </row>
-    <row r="96" spans="1:11" s="176" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96" s="171">
+    <row r="96" spans="1:11" s="150" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A96" s="145">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="C96" s="172" t="s">
-        <v>209</v>
-      </c>
-      <c r="D96" s="177">
-        <v>2</v>
-      </c>
-      <c r="E96" s="169"/>
-      <c r="F96" s="188" t="s">
-        <v>469</v>
-      </c>
-      <c r="G96" s="188" t="s">
-        <v>377</v>
-      </c>
-      <c r="H96" s="189">
+      <c r="C96" s="146" t="s">
+        <v>206</v>
+      </c>
+      <c r="D96" s="151">
+        <v>2</v>
+      </c>
+      <c r="E96" s="174"/>
+      <c r="F96" s="162" t="s">
+        <v>466</v>
+      </c>
+      <c r="G96" s="162" t="s">
+        <v>374</v>
+      </c>
+      <c r="H96" s="163">
         <v>2</v>
       </c>
       <c r="I96" s="63"/>
@@ -6783,22 +7030,22 @@
         <v>88</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="C97" s="142" t="s">
-        <v>210</v>
-      </c>
-      <c r="D97" s="165">
-        <v>2</v>
-      </c>
-      <c r="E97" s="169"/>
-      <c r="F97" s="186" t="s">
-        <v>470</v>
-      </c>
-      <c r="G97" s="186" t="s">
-        <v>210</v>
-      </c>
-      <c r="H97" s="187">
+        <v>318</v>
+      </c>
+      <c r="C97" s="138" t="s">
+        <v>207</v>
+      </c>
+      <c r="D97" s="142">
+        <v>2</v>
+      </c>
+      <c r="E97" s="174"/>
+      <c r="F97" s="160" t="s">
+        <v>467</v>
+      </c>
+      <c r="G97" s="160" t="s">
+        <v>207</v>
+      </c>
+      <c r="H97" s="161">
         <v>2</v>
       </c>
       <c r="I97" s="63"/>
@@ -6811,22 +7058,22 @@
         <v>89</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="C98" s="142" t="s">
-        <v>211</v>
-      </c>
-      <c r="D98" s="165">
-        <v>2</v>
-      </c>
-      <c r="E98" s="169"/>
-      <c r="F98" s="186" t="s">
-        <v>471</v>
-      </c>
-      <c r="G98" s="186" t="s">
-        <v>211</v>
-      </c>
-      <c r="H98" s="187">
+        <v>319</v>
+      </c>
+      <c r="C98" s="138" t="s">
+        <v>208</v>
+      </c>
+      <c r="D98" s="142">
+        <v>2</v>
+      </c>
+      <c r="E98" s="174"/>
+      <c r="F98" s="160" t="s">
+        <v>468</v>
+      </c>
+      <c r="G98" s="160" t="s">
+        <v>208</v>
+      </c>
+      <c r="H98" s="161">
         <v>2</v>
       </c>
       <c r="I98" s="63"/>
@@ -6839,80 +7086,80 @@
         <v>90</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="C99" s="142" t="s">
-        <v>212</v>
-      </c>
-      <c r="D99" s="165">
-        <v>2</v>
-      </c>
-      <c r="E99" s="169"/>
-      <c r="F99" s="186" t="s">
-        <v>472</v>
-      </c>
-      <c r="G99" s="186" t="s">
-        <v>212</v>
-      </c>
-      <c r="H99" s="187">
+        <v>320</v>
+      </c>
+      <c r="C99" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="D99" s="142">
+        <v>2</v>
+      </c>
+      <c r="E99" s="174"/>
+      <c r="F99" s="160" t="s">
+        <v>469</v>
+      </c>
+      <c r="G99" s="160" t="s">
+        <v>209</v>
+      </c>
+      <c r="H99" s="161">
         <v>2</v>
       </c>
       <c r="I99" s="63"/>
       <c r="J99" s="63"/>
       <c r="K99" s="77"/>
     </row>
-    <row r="100" spans="1:11" s="176" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A100" s="171">
+    <row r="100" spans="1:11" s="150" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A100" s="145">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B100" s="176" t="s">
-        <v>324</v>
-      </c>
-      <c r="C100" s="172" t="s">
-        <v>213</v>
-      </c>
-      <c r="D100" s="177">
-        <v>2</v>
-      </c>
-      <c r="E100" s="168" t="s">
-        <v>233</v>
-      </c>
-      <c r="F100" s="188" t="s">
-        <v>473</v>
-      </c>
-      <c r="G100" s="188" t="s">
-        <v>378</v>
-      </c>
-      <c r="H100" s="189">
+      <c r="B100" s="150" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100" s="146" t="s">
+        <v>210</v>
+      </c>
+      <c r="D100" s="151">
+        <v>2</v>
+      </c>
+      <c r="E100" s="173" t="s">
+        <v>230</v>
+      </c>
+      <c r="F100" s="162" t="s">
+        <v>470</v>
+      </c>
+      <c r="G100" s="162" t="s">
+        <v>375</v>
+      </c>
+      <c r="H100" s="163">
         <v>1</v>
       </c>
       <c r="I100" s="63"/>
       <c r="J100" s="63"/>
       <c r="K100" s="77"/>
     </row>
-    <row r="101" spans="1:11" s="176" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A101" s="171">
+    <row r="101" spans="1:11" s="150" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A101" s="145">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B101" s="176" t="s">
-        <v>325</v>
-      </c>
-      <c r="C101" s="172" t="s">
-        <v>214</v>
-      </c>
-      <c r="D101" s="177">
-        <v>2</v>
-      </c>
-      <c r="E101" s="169"/>
-      <c r="F101" s="188" t="s">
-        <v>474</v>
-      </c>
-      <c r="G101" s="188" t="s">
-        <v>379</v>
-      </c>
-      <c r="H101" s="189">
+      <c r="B101" s="150" t="s">
+        <v>322</v>
+      </c>
+      <c r="C101" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="D101" s="151">
+        <v>2</v>
+      </c>
+      <c r="E101" s="174"/>
+      <c r="F101" s="162" t="s">
+        <v>471</v>
+      </c>
+      <c r="G101" s="162" t="s">
+        <v>376</v>
+      </c>
+      <c r="H101" s="163">
         <v>1</v>
       </c>
       <c r="I101" s="63"/>
@@ -6925,50 +7172,50 @@
         <v>93</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="C102" s="142" t="s">
-        <v>215</v>
-      </c>
-      <c r="D102" s="165">
-        <v>2</v>
-      </c>
-      <c r="E102" s="169"/>
-      <c r="F102" s="186" t="s">
-        <v>475</v>
-      </c>
-      <c r="G102" s="186" t="s">
-        <v>215</v>
-      </c>
-      <c r="H102" s="187">
+        <v>323</v>
+      </c>
+      <c r="C102" s="138" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102" s="142">
+        <v>2</v>
+      </c>
+      <c r="E102" s="174"/>
+      <c r="F102" s="160" t="s">
+        <v>472</v>
+      </c>
+      <c r="G102" s="160" t="s">
+        <v>212</v>
+      </c>
+      <c r="H102" s="161">
         <v>2</v>
       </c>
       <c r="I102" s="63"/>
       <c r="J102" s="63"/>
       <c r="K102" s="77"/>
     </row>
-    <row r="103" spans="1:11" s="176" customFormat="1" ht="144" x14ac:dyDescent="0.25">
-      <c r="A103" s="171">
+    <row r="103" spans="1:11" s="150" customFormat="1" ht="144" x14ac:dyDescent="0.25">
+      <c r="A103" s="145">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B103" s="176" t="s">
-        <v>327</v>
-      </c>
-      <c r="C103" s="172" t="s">
-        <v>216</v>
-      </c>
-      <c r="D103" s="177">
-        <v>2</v>
-      </c>
-      <c r="E103" s="169"/>
-      <c r="F103" s="188" t="s">
-        <v>476</v>
-      </c>
-      <c r="G103" s="188" t="s">
-        <v>380</v>
-      </c>
-      <c r="H103" s="189">
+      <c r="B103" s="150" t="s">
+        <v>324</v>
+      </c>
+      <c r="C103" s="146" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" s="151">
+        <v>2</v>
+      </c>
+      <c r="E103" s="174"/>
+      <c r="F103" s="162" t="s">
+        <v>473</v>
+      </c>
+      <c r="G103" s="162" t="s">
+        <v>377</v>
+      </c>
+      <c r="H103" s="163">
         <v>2</v>
       </c>
       <c r="I103" s="63"/>
@@ -6981,22 +7228,22 @@
         <v>95</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="C104" s="142" t="s">
-        <v>217</v>
-      </c>
-      <c r="D104" s="165">
-        <v>2</v>
-      </c>
-      <c r="E104" s="169"/>
-      <c r="F104" s="186" t="s">
-        <v>477</v>
-      </c>
-      <c r="G104" s="186" t="s">
-        <v>217</v>
-      </c>
-      <c r="H104" s="187">
+        <v>325</v>
+      </c>
+      <c r="C104" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" s="142">
+        <v>2</v>
+      </c>
+      <c r="E104" s="174"/>
+      <c r="F104" s="160" t="s">
+        <v>474</v>
+      </c>
+      <c r="G104" s="160" t="s">
+        <v>214</v>
+      </c>
+      <c r="H104" s="161">
         <v>2</v>
       </c>
       <c r="I104" s="63"/>
@@ -7009,50 +7256,50 @@
         <v>96</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="C105" s="142" t="s">
-        <v>218</v>
-      </c>
-      <c r="D105" s="165">
-        <v>2</v>
-      </c>
-      <c r="E105" s="169"/>
-      <c r="F105" s="186" t="s">
-        <v>478</v>
-      </c>
-      <c r="G105" s="186" t="s">
-        <v>218</v>
-      </c>
-      <c r="H105" s="187">
+        <v>326</v>
+      </c>
+      <c r="C105" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="D105" s="142">
+        <v>2</v>
+      </c>
+      <c r="E105" s="174"/>
+      <c r="F105" s="160" t="s">
+        <v>475</v>
+      </c>
+      <c r="G105" s="160" t="s">
+        <v>215</v>
+      </c>
+      <c r="H105" s="161">
         <v>2</v>
       </c>
       <c r="I105" s="63"/>
       <c r="J105" s="63"/>
       <c r="K105" s="77"/>
     </row>
-    <row r="106" spans="1:11" s="176" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A106" s="171">
+    <row r="106" spans="1:11" s="150" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A106" s="145">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B106" s="176" t="s">
-        <v>330</v>
-      </c>
-      <c r="C106" s="172" t="s">
-        <v>219</v>
-      </c>
-      <c r="D106" s="177">
-        <v>2</v>
-      </c>
-      <c r="E106" s="169"/>
-      <c r="F106" s="188" t="s">
-        <v>479</v>
-      </c>
-      <c r="G106" s="188" t="s">
-        <v>381</v>
-      </c>
-      <c r="H106" s="189">
+      <c r="B106" s="150" t="s">
+        <v>327</v>
+      </c>
+      <c r="C106" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="D106" s="151">
+        <v>2</v>
+      </c>
+      <c r="E106" s="174"/>
+      <c r="F106" s="162" t="s">
+        <v>476</v>
+      </c>
+      <c r="G106" s="162" t="s">
+        <v>378</v>
+      </c>
+      <c r="H106" s="163">
         <v>2</v>
       </c>
       <c r="I106" s="63"/>
@@ -7065,52 +7312,52 @@
         <v>98</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="C107" s="142" t="s">
-        <v>220</v>
-      </c>
-      <c r="D107" s="165">
-        <v>2</v>
-      </c>
-      <c r="E107" s="168" t="s">
-        <v>234</v>
-      </c>
-      <c r="F107" s="186" t="s">
-        <v>480</v>
-      </c>
-      <c r="G107" s="186" t="s">
-        <v>220</v>
-      </c>
-      <c r="H107" s="187">
+        <v>328</v>
+      </c>
+      <c r="C107" s="138" t="s">
+        <v>217</v>
+      </c>
+      <c r="D107" s="142">
+        <v>2</v>
+      </c>
+      <c r="E107" s="173" t="s">
+        <v>231</v>
+      </c>
+      <c r="F107" s="160" t="s">
+        <v>477</v>
+      </c>
+      <c r="G107" s="160" t="s">
+        <v>217</v>
+      </c>
+      <c r="H107" s="161">
         <v>2</v>
       </c>
       <c r="I107" s="63"/>
       <c r="J107" s="63"/>
       <c r="K107" s="77"/>
     </row>
-    <row r="108" spans="1:11" s="176" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A108" s="171">
+    <row r="108" spans="1:11" s="150" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A108" s="145">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B108" s="176" t="s">
-        <v>332</v>
-      </c>
-      <c r="C108" s="172" t="s">
-        <v>221</v>
-      </c>
-      <c r="D108" s="177">
-        <v>2</v>
-      </c>
-      <c r="E108" s="169"/>
-      <c r="F108" s="188" t="s">
-        <v>481</v>
-      </c>
-      <c r="G108" s="188" t="s">
-        <v>382</v>
-      </c>
-      <c r="H108" s="189">
+      <c r="B108" s="150" t="s">
+        <v>329</v>
+      </c>
+      <c r="C108" s="146" t="s">
+        <v>218</v>
+      </c>
+      <c r="D108" s="151">
+        <v>2</v>
+      </c>
+      <c r="E108" s="174"/>
+      <c r="F108" s="162" t="s">
+        <v>478</v>
+      </c>
+      <c r="G108" s="162" t="s">
+        <v>379</v>
+      </c>
+      <c r="H108" s="163">
         <v>2</v>
       </c>
       <c r="I108" s="63"/>
@@ -7123,22 +7370,22 @@
         <v>100</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="C109" s="142" t="s">
-        <v>222</v>
-      </c>
-      <c r="D109" s="165">
-        <v>2</v>
-      </c>
-      <c r="E109" s="170"/>
-      <c r="F109" s="186" t="s">
-        <v>482</v>
-      </c>
-      <c r="G109" s="186" t="s">
-        <v>222</v>
-      </c>
-      <c r="H109" s="187">
+        <v>330</v>
+      </c>
+      <c r="C109" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="D109" s="142">
+        <v>2</v>
+      </c>
+      <c r="E109" s="175"/>
+      <c r="F109" s="160" t="s">
+        <v>479</v>
+      </c>
+      <c r="G109" s="160" t="s">
+        <v>219</v>
+      </c>
+      <c r="H109" s="161">
         <v>2</v>
       </c>
       <c r="I109" s="63"/>
@@ -7163,11 +7410,11 @@
       </c>
       <c r="I110" s="82">
         <f>SUM(I10:I109)</f>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J110" s="82">
         <f>SUM(J10:J109)</f>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="K110" s="83"/>
     </row>
@@ -7179,8 +7426,8 @@
       <c r="F111" s="72"/>
       <c r="G111" s="72"/>
       <c r="H111" s="73"/>
-      <c r="I111" s="130"/>
-      <c r="J111" s="130"/>
+      <c r="I111" s="126"/>
+      <c r="J111" s="126"/>
       <c r="K111" s="35"/>
     </row>
     <row r="112" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
@@ -7201,30 +7448,34 @@
       <c r="A113" s="71"/>
       <c r="B113" s="37"/>
       <c r="C113" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="D113" s="97"/>
+        <v>31</v>
+      </c>
+      <c r="D113" s="190" t="s">
+        <v>487</v>
+      </c>
       <c r="F113" s="95"/>
       <c r="G113" s="67"/>
       <c r="H113" s="93"/>
-      <c r="I113" s="130" t="s">
-        <v>122</v>
-      </c>
-      <c r="J113" s="130"/>
-      <c r="K113" s="130"/>
+      <c r="I113" s="126" t="s">
+        <v>120</v>
+      </c>
+      <c r="J113" s="126"/>
+      <c r="K113" s="126"/>
     </row>
     <row r="114" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="71"/>
       <c r="B114" s="37"/>
       <c r="C114" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="D114" s="97"/>
+        <v>32</v>
+      </c>
+      <c r="D114" s="190" t="s">
+        <v>488</v>
+      </c>
       <c r="F114" s="96"/>
       <c r="G114" s="67"/>
       <c r="H114" s="93"/>
-      <c r="I114" s="130"/>
-      <c r="J114" s="130"/>
+      <c r="I114" s="126"/>
+      <c r="J114" s="126"/>
       <c r="K114" s="35"/>
     </row>
     <row r="115" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
@@ -7254,7 +7505,7 @@
     <row r="117" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="84"/>
       <c r="B117" s="85"/>
-      <c r="C117" s="86" t="s">
+      <c r="C117" s="191" t="s">
         <v>20</v>
       </c>
       <c r="D117" s="86"/>
@@ -7267,7 +7518,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:K56"/>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="E37:E44"/>
     <mergeCell ref="E100:E106"/>
     <mergeCell ref="E107:E109"/>
     <mergeCell ref="E23:E36"/>
@@ -7276,11 +7535,6 @@
     <mergeCell ref="E83:E89"/>
     <mergeCell ref="E90:E99"/>
     <mergeCell ref="E73:E82"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="E37:E44"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C109">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -7363,26 +7617,26 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="152" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
+      <c r="D2" s="180" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
       <c r="X2" s="35"/>
@@ -7461,7 +7715,7 @@
     </row>
     <row r="5" spans="1:30" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="41"/>
@@ -7487,7 +7741,7 @@
       <c r="W5" s="41"/>
       <c r="X5" s="42"/>
       <c r="Y5" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z5" s="44"/>
       <c r="AA5" s="44"/>
@@ -7497,7 +7751,7 @@
     </row>
     <row r="6" spans="1:30" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="47"/>
       <c r="C6" s="48"/>
@@ -7531,7 +7785,7 @@
     </row>
     <row r="7" spans="1:30" s="12" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -7564,114 +7818,114 @@
       <c r="AD7" s="50"/>
     </row>
     <row r="8" spans="1:30" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="158" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158" t="s">
+      <c r="A8" s="179" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="158"/>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="158"/>
-      <c r="R8" s="158"/>
-      <c r="S8" s="158"/>
-      <c r="T8" s="158"/>
-      <c r="U8" s="158"/>
-      <c r="V8" s="158"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="179"/>
+      <c r="Q8" s="179"/>
+      <c r="R8" s="179"/>
+      <c r="S8" s="179"/>
+      <c r="T8" s="179"/>
+      <c r="U8" s="179"/>
+      <c r="V8" s="179"/>
       <c r="W8" s="125"/>
-      <c r="X8" s="159" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y8" s="160" t="s">
+      <c r="X8" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y8" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="157" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA8" s="157"/>
-      <c r="AB8" s="157"/>
-      <c r="AC8" s="157"/>
-      <c r="AD8" s="157"/>
+      <c r="Z8" s="178" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA8" s="178"/>
+      <c r="AB8" s="178"/>
+      <c r="AC8" s="178"/>
+      <c r="AD8" s="178"/>
     </row>
     <row r="9" spans="1:30" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="158"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="161" t="s">
+      <c r="A9" s="179"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="162" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="162"/>
-      <c r="R9" s="162"/>
-      <c r="S9" s="162"/>
-      <c r="T9" s="162"/>
-      <c r="U9" s="162"/>
-      <c r="V9" s="162"/>
-      <c r="W9" s="162"/>
-      <c r="X9" s="159"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="157" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA9" s="157"/>
-      <c r="AB9" s="157"/>
-      <c r="AC9" s="157"/>
-      <c r="AD9" s="157"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="184" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="184"/>
+      <c r="S9" s="184"/>
+      <c r="T9" s="184"/>
+      <c r="U9" s="184"/>
+      <c r="V9" s="184"/>
+      <c r="W9" s="184"/>
+      <c r="X9" s="181"/>
+      <c r="Y9" s="182"/>
+      <c r="Z9" s="178" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA9" s="178"/>
+      <c r="AB9" s="178"/>
+      <c r="AC9" s="178"/>
+      <c r="AD9" s="178"/>
     </row>
     <row r="10" spans="1:30" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="155" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="155" t="s">
+      <c r="A10" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="155" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="156" t="s">
+      <c r="D10" s="186" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="156" t="s">
+      <c r="F10" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="156" t="s">
+      <c r="G10" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="156" t="s">
+      <c r="H10" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="156" t="s">
+      <c r="I10" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="156" t="s">
+      <c r="J10" s="185" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="124">
@@ -7713,81 +7967,81 @@
       <c r="W10" s="124">
         <v>13</v>
       </c>
-      <c r="X10" s="159"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="157" t="s">
+      <c r="X10" s="181"/>
+      <c r="Y10" s="182"/>
+      <c r="Z10" s="178" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA10" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="AA10" s="157" t="s">
+      <c r="AB10" s="178" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC10" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="AB10" s="157" t="s">
+      <c r="AD10" s="178" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" s="5" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="186"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="123" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="123" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="123" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="AC10" s="157" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD10" s="157" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" s="5" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="123" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" s="123" t="s">
+      <c r="R11" s="122" t="s">
         <v>114</v>
       </c>
-      <c r="M11" s="123" t="s">
-        <v>115</v>
-      </c>
-      <c r="N11" s="123" t="s">
-        <v>101</v>
-      </c>
-      <c r="O11" s="123" t="s">
-        <v>111</v>
-      </c>
-      <c r="P11" s="123" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q11" s="122" t="s">
-        <v>99</v>
-      </c>
-      <c r="R11" s="122" t="s">
-        <v>116</v>
-      </c>
       <c r="S11" s="122" t="s">
+        <v>105</v>
+      </c>
+      <c r="T11" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="T11" s="122" t="s">
-        <v>109</v>
-      </c>
       <c r="U11" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="V11" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="V11" s="122" t="s">
-        <v>110</v>
-      </c>
       <c r="W11" s="122" t="s">
-        <v>103</v>
-      </c>
-      <c r="X11" s="159"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="157"/>
-      <c r="AA11" s="157"/>
-      <c r="AB11" s="157"/>
-      <c r="AC11" s="157"/>
-      <c r="AD11" s="157"/>
+        <v>102</v>
+      </c>
+      <c r="X11" s="181"/>
+      <c r="Y11" s="182"/>
+      <c r="Z11" s="178"/>
+      <c r="AA11" s="178"/>
+      <c r="AB11" s="178"/>
+      <c r="AC11" s="178"/>
+      <c r="AD11" s="178"/>
     </row>
     <row r="12" spans="1:30" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="51"/>
@@ -9094,7 +9348,7 @@
       <c r="B51" s="64"/>
       <c r="C51" s="64"/>
       <c r="D51" s="97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" s="65"/>
       <c r="F51" s="65"/>
@@ -9118,7 +9372,7 @@
       <c r="V51" s="64"/>
       <c r="W51" s="64"/>
       <c r="X51" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y51" s="64"/>
       <c r="Z51" s="64"/>
@@ -9132,7 +9386,7 @@
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
       <c r="D52" s="97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
@@ -9260,6 +9514,14 @@
   </sheetData>
   <autoFilter ref="A11:V51"/>
   <mergeCells count="24">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="Z8:AD8"/>
     <mergeCell ref="Z9:AD9"/>
     <mergeCell ref="A8:D9"/>
@@ -9276,14 +9538,6 @@
     <mergeCell ref="AD10:AD11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="I10:I11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="B49">
     <cfRule type="colorScale" priority="2">
